--- a/etc/2235-swen-261-8H Team Trees copy.xlsx
+++ b/etc/2235-swen-261-8H Team Trees copy.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Table 1_1" sheetId="2" r:id="rId5"/>
+    <sheet name="Table 1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Table 1_1" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
-    <t>Instructions</t>
+    <t xml:space="preserve">Instructions</t>
   </si>
   <si>
-    <t>Enter your team name as specified in the cell below. When doing cross-team acceptance testing, enter the name for the testing group.
+    <t xml:space="preserve">Enter your team name as specified in the cell below. When doing cross-team acceptance testing, enter the name for the testing group.
 Fill-in the Test Plan worksheet with all the remaining User Stories in your Product Backlog.  Since Product acceptance is from the perspective of the end-user, only add User Stories that pertain to the Owner or Buyer and do not include User Stories specifically for the REST API service (e.g. AS a developer...).
 As your user stories are refined, add the acceptance criteria for each user story. Use a separate worksheet to provide any specific test case data that the tester needs to use.
 As tests are performed in each sprint, indicate Pass/Fail.  Note that there are separate columns for each sprint.  The tester should add initials and a date in the comments column. If the test failed, the tester is required to add additional information about the failure. The status cell will color code based on the test results. The comments cell will color code when a test result exists but no information is entered.
@@ -25,80 +34,77 @@
 Submit this file per the instructions specified for the sprint submissions and cross-team testing.</t>
   </si>
   <si>
-    <t>Team Name</t>
+    <t xml:space="preserve">Team Name</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2235-swen-261-8H Team Trees</t>
-    </r>
+    <t xml:space="preserve">2235-swen-261-8H Team Trees</t>
   </si>
   <si>
-    <t>Testing Team Name</t>
+    <t xml:space="preserve">Testing Team Name</t>
   </si>
   <si>
-    <t>fill in when doing cross-team testing</t>
+    <t xml:space="preserve">fill in when doing cross-team testing</t>
   </si>
   <si>
-    <t>User Story</t>
+    <t xml:space="preserve">User Story</t>
   </si>
   <si>
-    <t>Acceptance Criterion</t>
+    <t xml:space="preserve">Acceptance Criterion</t>
   </si>
   <si>
-    <t>Sprint 2</t>
+    <t xml:space="preserve">Sprint 2</t>
   </si>
   <si>
-    <t>Tester initials; date; comments (required if test failed)</t>
+    <t xml:space="preserve">Tester initials; date; comments (required if test failed)</t>
   </si>
   <si>
-    <t>Sprint 3</t>
+    <t xml:space="preserve">Sprint 3</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="8"/>
-        <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">As a </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="8"/>
-        <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>helper</t>
+      <t xml:space="preserve">helper</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I want to see a list of </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="8"/>
-        <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>needs</t>
+      <t xml:space="preserve">needs</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> so that I choose what to contribute to.</t>
     </r>
@@ -107,552 +113,574 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given that I am on the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>u-fund</t>
+      <t xml:space="preserve">u-fund</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> site when I am not on the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page then I must see a means to navigate to the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page.</t>
     </r>
   </si>
   <si>
-    <t>RN 3/23/24 Pass</t>
+    <t xml:space="preserve">RN 3/23/24 Pass</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>As a helper I want to navigate my site so I can help contribute to the needs</t>
-    </r>
+    <t xml:space="preserve">As a helper I want to navigate my site so I can help contribute to the needs</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given that I am not on the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page when I choose the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page then I am taken to the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page.</t>
     </r>
   </si>
   <si>
-    <t>NF 3/23/24 Pass</t>
+    <t xml:space="preserve">NF 3/23/24 Pass</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>As a helper I want to get feedback if there are needs so that I know when I can contribute to them</t>
-    </r>
+    <t xml:space="preserve">As a helper I want to get feedback if there are needs so that I know when I can contribute to them</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given that I am on the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page when there are no </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>needs</t>
+      <t xml:space="preserve">needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> in the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>cupboard</t>
+      <t xml:space="preserve">cupboard</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> I see a message indicating that that there are no </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>needs</t>
+      <t xml:space="preserve">needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> available to contribute.</t>
     </r>
   </si>
   <si>
-    <t>RN 3/25/24 – Failed. Comment: have not created yet</t>
+    <t xml:space="preserve">RN 3/25/24 – Failed. Comment: have not created yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want to have a description of each need so when I click on a need it gives it’s details</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>As a user I want to have a description of each need so when I click on a need it gives it’s details</t>
+      <t xml:space="preserve">Given that I am on the </t>
     </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Needs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> page when there are </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">needs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">cupboard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> then I see each </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">need</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and short description.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want to add a need(s) to a cart so that I can populate my funding basket</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Given that I am on the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>Needs</t>
+      <t xml:space="preserve">Needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> page when there are </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>needs</t>
+      <t xml:space="preserve">needs</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> in the </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>cupboard</t>
+      <t xml:space="preserve">cupboard</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> then I see each </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>need</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> and short description.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>As a user I want to add a need(s) to a cart so that I can populate my funding basket</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Given that I am on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> page when there are </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>needs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> in the </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>cupboard</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> then I see a means to add each </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>need</t>
+      <t xml:space="preserve">need</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> to my funding </t>
     </r>
     <r>
       <rPr>
-        <b val="1"/>
+        <b val="true"/>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>basket</t>
+      <t xml:space="preserve">basket</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
-    <t>NF 3/24/24 Pass</t>
+    <t xml:space="preserve">NF 3/24/24 Pass</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>As an helper I want to have control over the needs so that I can change my cupboard as needed</t>
-    </r>
+    <t xml:space="preserve">As an helper I want to have control over the needs so that I can change my cupboard as needed</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Given that I am on the Needs page when logged in as an admin then I want to be able to add/delete/update/search the needs </t>
-    </r>
+    <t xml:space="preserve">Given that I am on the Needs page when logged in as an admin then I want to be able to add/delete/update/search the needs </t>
   </si>
   <si>
-    <t>RN 3/24/24 Pass</t>
+    <t xml:space="preserve">RN 3/24/24 Pass</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">As a user I want to be able to login as a user, so that I can have access to user functionality  </t>
-    </r>
+    <t xml:space="preserve">As a user I want to be able to login as a user, so that I can have access to user functionality  </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Given that I am on the login page when first accessing the website then I want to be able to login as either a user</t>
-    </r>
+    <t xml:space="preserve">Given that I am on the login page when first accessing the website then I want to be able to login as either a user</t>
   </si>
   <si>
-    <t>ZH, DR 3/24/24 Pass</t>
+    <t xml:space="preserve">ZH, DR 3/24/24 Pass</t>
   </si>
   <si>
     <t xml:space="preserve">As an admin I want to be able to login as a user, so that I can have access to admin functionality  </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Given that I am on the login page when first accessing the website then I want to be able to login as admin</t>
-    </r>
+    <t xml:space="preserve">Given that I am on the login page when first accessing the website then I want to be able to login as admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to sort by age, so that I can support a need based on a given size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I want to filter by size **when** I click the filter by size button, **then** I expect to see the needs filtered by size, either ascending or descending.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN 4/2/24 Failed. Comment – Not implemented yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to search for a need by name, so that I can support the need that I want to based on a specific name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I enter a string/partial string in which no need has **when** I search for a need **then** I expect to receive an empty list of needs with a code of 200. **Given** I enter a string **when** I search for a need **then** I expect the list of visible needs to filter based on the given string and return a 200.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to be able to filter by cost, so that I can see which needs are cheaper and which are more expensive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I want to filter by cost **when** I click the filter by cost button, **then** I expect to see the needs filtered by cost, either ascending or descending.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I want to see a description of a given need, so that I can find out more information about a given need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Given** I am on the need view page **when**  I click a given need **then** I expect a description of a need to appear on the screen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="8"/>
-      <color indexed="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -664,314 +692,276 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
-    <border>
+  <borders count="16">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
+      <top style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellXfs count="29">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff323232"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -983,119 +973,104 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="A7A7A7"/>
+        <a:srgbClr val="a7a7a7"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FF00FF"/>
+        <a:srgbClr val="ff00ff"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="104999"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
@@ -1114,981 +1089,148 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="25400" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:txDef>
-  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="115.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="115.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="283.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" customFormat="false" ht="283.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" t="s" s="7">
+    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="s" s="7">
+    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="20" customHeight="1">
+    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" ht="20" customHeight="1">
+    <row r="6" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="20" customHeight="1">
+    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="20" customHeight="1">
+    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
+    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="20" customHeight="1">
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2096,9 +1238,10 @@
       <c r="E10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Table 1</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2106,187 +1249,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F587"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="64.8516" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.67188" style="8" customWidth="1"/>
-    <col min="4" max="4" width="64.8516" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.67188" style="8" customWidth="1"/>
-    <col min="6" max="6" width="64.8516" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="8" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="64.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="9">
+    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="10">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="10">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="10">
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s" s="10">
+      <c r="E1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="11">
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="44.25" customHeight="1">
-      <c r="A2" t="s" s="12">
+    <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="13">
+      <c r="B2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="14"/>
-      <c r="D2" t="s" s="13">
+      <c r="D2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" t="s" s="16">
+    <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="17">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="14"/>
-      <c r="D3" t="s" s="17">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" ht="47.25" customHeight="1">
-      <c r="A4" t="s" s="16">
+    <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" t="s" s="17">
+      <c r="D4" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" ht="31.5" customHeight="1">
-      <c r="A5" t="s" s="19">
+    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="17">
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" t="s" s="17">
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" ht="32.25" customHeight="1">
-      <c r="A6" t="s" s="20">
+    <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s" s="21">
+      <c r="B6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" t="s" s="17">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="22">
+    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="23">
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" t="s" s="17">
+      <c r="D7" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="24">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" t="s" s="17">
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" t="s" s="25">
+    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s" s="24">
+      <c r="B9" s="24" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" t="s" s="17">
+      <c r="D9" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="26"/>
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="27" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="26"/>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="E11" s="14"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="26"/>
+    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" s="14"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="26"/>
+    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="27"/>
+      <c r="D13" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" s="14"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="20" customHeight="1">
+    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="26"/>
       <c r="C14" s="14"/>
@@ -2294,7 +1466,7 @@
       <c r="E14" s="14"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="20" customHeight="1">
+    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
       <c r="B15" s="26"/>
       <c r="C15" s="14"/>
@@ -2302,7 +1474,7 @@
       <c r="E15" s="14"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="20" customHeight="1">
+    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
       <c r="B16" s="26"/>
       <c r="C16" s="14"/>
@@ -2310,7 +1482,7 @@
       <c r="E16" s="14"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="20" customHeight="1">
+    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="26"/>
       <c r="C17" s="14"/>
@@ -2318,7 +1490,7 @@
       <c r="E17" s="14"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" ht="20" customHeight="1">
+    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="26"/>
       <c r="C18" s="14"/>
@@ -2326,7 +1498,7 @@
       <c r="E18" s="14"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="20" customHeight="1">
+    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="26"/>
       <c r="C19" s="14"/>
@@ -2334,7 +1506,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" ht="20" customHeight="1">
+    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="26"/>
       <c r="C20" s="14"/>
@@ -2342,7 +1514,7 @@
       <c r="E20" s="14"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="20" customHeight="1">
+    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="26"/>
       <c r="C21" s="14"/>
@@ -2350,7 +1522,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="20" customHeight="1">
+    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="26"/>
       <c r="C22" s="14"/>
@@ -2358,7 +1530,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="20" customHeight="1">
+    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="26"/>
       <c r="C23" s="14"/>
@@ -2366,7 +1538,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" ht="20" customHeight="1">
+    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
       <c r="B24" s="26"/>
       <c r="C24" s="14"/>
@@ -2374,7 +1546,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="20" customHeight="1">
+    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
       <c r="B25" s="26"/>
       <c r="C25" s="14"/>
@@ -2382,7 +1554,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" ht="20" customHeight="1">
+    <row r="26" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5"/>
       <c r="B26" s="26"/>
       <c r="C26" s="14"/>
@@ -2390,7 +1562,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="20" customHeight="1">
+    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
       <c r="B27" s="26"/>
       <c r="C27" s="14"/>
@@ -2398,7 +1570,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" ht="20" customHeight="1">
+    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
       <c r="B28" s="26"/>
       <c r="C28" s="14"/>
@@ -2406,7 +1578,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" ht="20" customHeight="1">
+    <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="26"/>
       <c r="C29" s="14"/>
@@ -2414,7 +1586,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" ht="20" customHeight="1">
+    <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="26"/>
       <c r="C30" s="14"/>
@@ -2422,7 +1594,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" ht="20" customHeight="1">
+    <row r="31" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="26"/>
       <c r="C31" s="14"/>
@@ -2430,7 +1602,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" ht="20" customHeight="1">
+    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="26"/>
       <c r="C32" s="14"/>
@@ -2438,7 +1610,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" ht="20" customHeight="1">
+    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="26"/>
       <c r="C33" s="14"/>
@@ -2446,7 +1618,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" ht="20" customHeight="1">
+    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="26"/>
       <c r="C34" s="14"/>
@@ -2454,7 +1626,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" ht="20" customHeight="1">
+    <row r="35" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="26"/>
       <c r="C35" s="14"/>
@@ -2462,7 +1634,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" ht="20" customHeight="1">
+    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="26"/>
       <c r="C36" s="14"/>
@@ -2470,7 +1642,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" ht="20" customHeight="1">
+    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="26"/>
       <c r="C37" s="14"/>
@@ -2478,7 +1650,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" ht="20" customHeight="1">
+    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="26"/>
       <c r="C38" s="14"/>
@@ -2486,7 +1658,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" ht="20" customHeight="1">
+    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="26"/>
       <c r="C39" s="14"/>
@@ -2494,7 +1666,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" ht="20" customHeight="1">
+    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="26"/>
       <c r="C40" s="14"/>
@@ -2502,7 +1674,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="4"/>
     </row>
-    <row r="41" ht="20" customHeight="1">
+    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="26"/>
       <c r="C41" s="14"/>
@@ -2510,7 +1682,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" ht="20" customHeight="1">
+    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="26"/>
       <c r="C42" s="14"/>
@@ -2518,7 +1690,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" ht="20" customHeight="1">
+    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="26"/>
       <c r="C43" s="14"/>
@@ -2526,7 +1698,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" ht="20" customHeight="1">
+    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="26"/>
       <c r="C44" s="14"/>
@@ -2534,7 +1706,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" ht="20" customHeight="1">
+    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="26"/>
       <c r="C45" s="14"/>
@@ -2542,7 +1714,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" ht="20" customHeight="1">
+    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="26"/>
       <c r="C46" s="14"/>
@@ -2550,7 +1722,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" ht="20" customHeight="1">
+    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
       <c r="B47" s="26"/>
       <c r="C47" s="14"/>
@@ -2558,7 +1730,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" ht="20" customHeight="1">
+    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="26"/>
       <c r="C48" s="14"/>
@@ -2566,7 +1738,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" ht="20" customHeight="1">
+    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
       <c r="B49" s="26"/>
       <c r="C49" s="14"/>
@@ -2574,7 +1746,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" ht="20" customHeight="1">
+    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
       <c r="B50" s="26"/>
       <c r="C50" s="14"/>
@@ -2582,7 +1754,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" ht="20" customHeight="1">
+    <row r="51" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="5"/>
       <c r="B51" s="26"/>
       <c r="C51" s="14"/>
@@ -2590,7 +1762,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" ht="20" customHeight="1">
+    <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="5"/>
       <c r="B52" s="26"/>
       <c r="C52" s="14"/>
@@ -2598,7 +1770,7 @@
       <c r="E52" s="14"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" ht="20" customHeight="1">
+    <row r="53" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="5"/>
       <c r="B53" s="26"/>
       <c r="C53" s="14"/>
@@ -2606,7 +1778,7 @@
       <c r="E53" s="14"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" ht="20" customHeight="1">
+    <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="26"/>
       <c r="C54" s="14"/>
@@ -2614,7 +1786,7 @@
       <c r="E54" s="14"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" ht="20" customHeight="1">
+    <row r="55" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="5"/>
       <c r="B55" s="26"/>
       <c r="C55" s="14"/>
@@ -2622,7 +1794,7 @@
       <c r="E55" s="14"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" ht="20" customHeight="1">
+    <row r="56" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="5"/>
       <c r="B56" s="26"/>
       <c r="C56" s="14"/>
@@ -2630,7 +1802,7 @@
       <c r="E56" s="14"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" ht="20" customHeight="1">
+    <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
       <c r="B57" s="26"/>
       <c r="C57" s="14"/>
@@ -2638,7 +1810,7 @@
       <c r="E57" s="14"/>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" ht="20" customHeight="1">
+    <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
       <c r="B58" s="26"/>
       <c r="C58" s="14"/>
@@ -2646,7 +1818,7 @@
       <c r="E58" s="14"/>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" ht="20" customHeight="1">
+    <row r="59" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="5"/>
       <c r="B59" s="26"/>
       <c r="C59" s="14"/>
@@ -2654,7 +1826,7 @@
       <c r="E59" s="14"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" ht="20" customHeight="1">
+    <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="5"/>
       <c r="B60" s="26"/>
       <c r="C60" s="14"/>
@@ -2662,7 +1834,7 @@
       <c r="E60" s="14"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" ht="20" customHeight="1">
+    <row r="61" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="5"/>
       <c r="B61" s="26"/>
       <c r="C61" s="14"/>
@@ -2670,7 +1842,7 @@
       <c r="E61" s="14"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" ht="20" customHeight="1">
+    <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="5"/>
       <c r="B62" s="26"/>
       <c r="C62" s="14"/>
@@ -2678,7 +1850,7 @@
       <c r="E62" s="14"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" ht="20" customHeight="1">
+    <row r="63" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="5"/>
       <c r="B63" s="26"/>
       <c r="C63" s="14"/>
@@ -2686,7 +1858,7 @@
       <c r="E63" s="14"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" ht="20" customHeight="1">
+    <row r="64" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="5"/>
       <c r="B64" s="26"/>
       <c r="C64" s="14"/>
@@ -2694,7 +1866,7 @@
       <c r="E64" s="14"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" ht="20" customHeight="1">
+    <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="5"/>
       <c r="B65" s="26"/>
       <c r="C65" s="14"/>
@@ -2702,7 +1874,7 @@
       <c r="E65" s="14"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" ht="20" customHeight="1">
+    <row r="66" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="5"/>
       <c r="B66" s="26"/>
       <c r="C66" s="14"/>
@@ -2710,7 +1882,7 @@
       <c r="E66" s="14"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" ht="20" customHeight="1">
+    <row r="67" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="5"/>
       <c r="B67" s="26"/>
       <c r="C67" s="14"/>
@@ -2718,7 +1890,7 @@
       <c r="E67" s="14"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" ht="20" customHeight="1">
+    <row r="68" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="5"/>
       <c r="B68" s="26"/>
       <c r="C68" s="14"/>
@@ -2726,7 +1898,7 @@
       <c r="E68" s="14"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" ht="20" customHeight="1">
+    <row r="69" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="5"/>
       <c r="B69" s="26"/>
       <c r="C69" s="14"/>
@@ -2734,7 +1906,7 @@
       <c r="E69" s="14"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" ht="20" customHeight="1">
+    <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
       <c r="B70" s="26"/>
       <c r="C70" s="14"/>
@@ -2742,7 +1914,7 @@
       <c r="E70" s="14"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" ht="20" customHeight="1">
+    <row r="71" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="5"/>
       <c r="B71" s="26"/>
       <c r="C71" s="14"/>
@@ -2750,7 +1922,7 @@
       <c r="E71" s="14"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" ht="20" customHeight="1">
+    <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="5"/>
       <c r="B72" s="26"/>
       <c r="C72" s="14"/>
@@ -2758,7 +1930,7 @@
       <c r="E72" s="14"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" ht="20" customHeight="1">
+    <row r="73" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
       <c r="B73" s="26"/>
       <c r="C73" s="14"/>
@@ -2766,7 +1938,7 @@
       <c r="E73" s="14"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" ht="20" customHeight="1">
+    <row r="74" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="5"/>
       <c r="B74" s="26"/>
       <c r="C74" s="14"/>
@@ -2774,7 +1946,7 @@
       <c r="E74" s="14"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" ht="20" customHeight="1">
+    <row r="75" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="5"/>
       <c r="B75" s="26"/>
       <c r="C75" s="14"/>
@@ -2782,7 +1954,7 @@
       <c r="E75" s="14"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" ht="20" customHeight="1">
+    <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="5"/>
       <c r="B76" s="26"/>
       <c r="C76" s="14"/>
@@ -2790,7 +1962,7 @@
       <c r="E76" s="14"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" ht="20" customHeight="1">
+    <row r="77" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="5"/>
       <c r="B77" s="26"/>
       <c r="C77" s="14"/>
@@ -2798,7 +1970,7 @@
       <c r="E77" s="14"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" ht="20" customHeight="1">
+    <row r="78" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="5"/>
       <c r="B78" s="26"/>
       <c r="C78" s="14"/>
@@ -2806,7 +1978,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" ht="20" customHeight="1">
+    <row r="79" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="5"/>
       <c r="B79" s="26"/>
       <c r="C79" s="14"/>
@@ -2814,7 +1986,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" ht="20" customHeight="1">
+    <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="5"/>
       <c r="B80" s="26"/>
       <c r="C80" s="14"/>
@@ -2822,7 +1994,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" ht="20" customHeight="1">
+    <row r="81" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
       <c r="B81" s="26"/>
       <c r="C81" s="14"/>
@@ -2830,7 +2002,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" ht="20" customHeight="1">
+    <row r="82" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
       <c r="B82" s="26"/>
       <c r="C82" s="14"/>
@@ -2838,7 +2010,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" ht="20" customHeight="1">
+    <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="5"/>
       <c r="B83" s="26"/>
       <c r="C83" s="14"/>
@@ -2846,7 +2018,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" ht="20" customHeight="1">
+    <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="5"/>
       <c r="B84" s="26"/>
       <c r="C84" s="14"/>
@@ -2854,7 +2026,7 @@
       <c r="E84" s="14"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" ht="20" customHeight="1">
+    <row r="85" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
       <c r="B85" s="26"/>
       <c r="C85" s="14"/>
@@ -2862,7 +2034,7 @@
       <c r="E85" s="14"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" ht="20" customHeight="1">
+    <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="5"/>
       <c r="B86" s="26"/>
       <c r="C86" s="14"/>
@@ -2870,7 +2042,7 @@
       <c r="E86" s="14"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" ht="20" customHeight="1">
+    <row r="87" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="5"/>
       <c r="B87" s="26"/>
       <c r="C87" s="14"/>
@@ -2878,7 +2050,7 @@
       <c r="E87" s="14"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" ht="20" customHeight="1">
+    <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="5"/>
       <c r="B88" s="26"/>
       <c r="C88" s="14"/>
@@ -2886,7 +2058,7 @@
       <c r="E88" s="14"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" ht="20" customHeight="1">
+    <row r="89" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="5"/>
       <c r="B89" s="26"/>
       <c r="C89" s="14"/>
@@ -2894,7 +2066,7 @@
       <c r="E89" s="14"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" ht="20" customHeight="1">
+    <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="5"/>
       <c r="B90" s="26"/>
       <c r="C90" s="14"/>
@@ -2902,7 +2074,7 @@
       <c r="E90" s="14"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" ht="20" customHeight="1">
+    <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="5"/>
       <c r="B91" s="26"/>
       <c r="C91" s="14"/>
@@ -2910,7 +2082,7 @@
       <c r="E91" s="14"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" ht="20" customHeight="1">
+    <row r="92" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="5"/>
       <c r="B92" s="26"/>
       <c r="C92" s="14"/>
@@ -2918,7 +2090,7 @@
       <c r="E92" s="14"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" ht="20" customHeight="1">
+    <row r="93" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="5"/>
       <c r="B93" s="26"/>
       <c r="C93" s="14"/>
@@ -2926,7 +2098,7 @@
       <c r="E93" s="14"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" ht="20" customHeight="1">
+    <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="5"/>
       <c r="B94" s="26"/>
       <c r="C94" s="14"/>
@@ -2934,7 +2106,7 @@
       <c r="E94" s="14"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" ht="20" customHeight="1">
+    <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="5"/>
       <c r="B95" s="26"/>
       <c r="C95" s="14"/>
@@ -2942,7 +2114,7 @@
       <c r="E95" s="14"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" ht="20" customHeight="1">
+    <row r="96" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="5"/>
       <c r="B96" s="26"/>
       <c r="C96" s="14"/>
@@ -2950,7 +2122,7 @@
       <c r="E96" s="14"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" ht="20" customHeight="1">
+    <row r="97" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
       <c r="B97" s="26"/>
       <c r="C97" s="14"/>
@@ -2958,7 +2130,7 @@
       <c r="E97" s="14"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" ht="20" customHeight="1">
+    <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="5"/>
       <c r="B98" s="26"/>
       <c r="C98" s="14"/>
@@ -2966,7 +2138,7 @@
       <c r="E98" s="14"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" ht="20" customHeight="1">
+    <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="5"/>
       <c r="B99" s="26"/>
       <c r="C99" s="14"/>
@@ -2974,7 +2146,7 @@
       <c r="E99" s="14"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" ht="20" customHeight="1">
+    <row r="100" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="5"/>
       <c r="B100" s="26"/>
       <c r="C100" s="14"/>
@@ -2982,7 +2154,7 @@
       <c r="E100" s="14"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" ht="20" customHeight="1">
+    <row r="101" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="5"/>
       <c r="B101" s="26"/>
       <c r="C101" s="14"/>
@@ -2990,7 +2162,7 @@
       <c r="E101" s="14"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" ht="20" customHeight="1">
+    <row r="102" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="5"/>
       <c r="B102" s="26"/>
       <c r="C102" s="14"/>
@@ -2998,7 +2170,7 @@
       <c r="E102" s="14"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" ht="20" customHeight="1">
+    <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="5"/>
       <c r="B103" s="26"/>
       <c r="C103" s="14"/>
@@ -3006,7 +2178,7 @@
       <c r="E103" s="14"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" ht="20" customHeight="1">
+    <row r="104" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="5"/>
       <c r="B104" s="26"/>
       <c r="C104" s="14"/>
@@ -3014,7 +2186,7 @@
       <c r="E104" s="14"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" ht="20" customHeight="1">
+    <row r="105" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="5"/>
       <c r="B105" s="26"/>
       <c r="C105" s="14"/>
@@ -3022,7 +2194,7 @@
       <c r="E105" s="14"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" ht="20" customHeight="1">
+    <row r="106" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="5"/>
       <c r="B106" s="26"/>
       <c r="C106" s="14"/>
@@ -3030,7 +2202,7 @@
       <c r="E106" s="14"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" ht="20" customHeight="1">
+    <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="5"/>
       <c r="B107" s="26"/>
       <c r="C107" s="14"/>
@@ -3038,7 +2210,7 @@
       <c r="E107" s="14"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" ht="20" customHeight="1">
+    <row r="108" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="5"/>
       <c r="B108" s="26"/>
       <c r="C108" s="14"/>
@@ -3046,7 +2218,7 @@
       <c r="E108" s="14"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" ht="20" customHeight="1">
+    <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="5"/>
       <c r="B109" s="26"/>
       <c r="C109" s="14"/>
@@ -3054,7 +2226,7 @@
       <c r="E109" s="14"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" ht="20" customHeight="1">
+    <row r="110" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="5"/>
       <c r="B110" s="26"/>
       <c r="C110" s="14"/>
@@ -3062,7 +2234,7 @@
       <c r="E110" s="14"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" ht="20" customHeight="1">
+    <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="5"/>
       <c r="B111" s="26"/>
       <c r="C111" s="14"/>
@@ -3070,7 +2242,7 @@
       <c r="E111" s="14"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" ht="20" customHeight="1">
+    <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="5"/>
       <c r="B112" s="26"/>
       <c r="C112" s="14"/>
@@ -3078,7 +2250,7 @@
       <c r="E112" s="14"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" ht="20" customHeight="1">
+    <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="5"/>
       <c r="B113" s="26"/>
       <c r="C113" s="14"/>
@@ -3086,7 +2258,7 @@
       <c r="E113" s="14"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" ht="20" customHeight="1">
+    <row r="114" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="5"/>
       <c r="B114" s="26"/>
       <c r="C114" s="14"/>
@@ -3094,7 +2266,7 @@
       <c r="E114" s="14"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" ht="20" customHeight="1">
+    <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="5"/>
       <c r="B115" s="26"/>
       <c r="C115" s="14"/>
@@ -3102,7 +2274,7 @@
       <c r="E115" s="14"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" ht="20" customHeight="1">
+    <row r="116" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="5"/>
       <c r="B116" s="26"/>
       <c r="C116" s="14"/>
@@ -3110,7 +2282,7 @@
       <c r="E116" s="14"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" ht="20" customHeight="1">
+    <row r="117" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="5"/>
       <c r="B117" s="26"/>
       <c r="C117" s="14"/>
@@ -3118,7 +2290,7 @@
       <c r="E117" s="14"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" ht="20" customHeight="1">
+    <row r="118" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="5"/>
       <c r="B118" s="26"/>
       <c r="C118" s="14"/>
@@ -3126,7 +2298,7 @@
       <c r="E118" s="14"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" ht="20" customHeight="1">
+    <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="5"/>
       <c r="B119" s="26"/>
       <c r="C119" s="14"/>
@@ -3134,7 +2306,7 @@
       <c r="E119" s="14"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" ht="20" customHeight="1">
+    <row r="120" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="5"/>
       <c r="B120" s="26"/>
       <c r="C120" s="14"/>
@@ -3142,7 +2314,7 @@
       <c r="E120" s="14"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" ht="20" customHeight="1">
+    <row r="121" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="5"/>
       <c r="B121" s="26"/>
       <c r="C121" s="14"/>
@@ -3150,7 +2322,7 @@
       <c r="E121" s="14"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" ht="20" customHeight="1">
+    <row r="122" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="5"/>
       <c r="B122" s="26"/>
       <c r="C122" s="14"/>
@@ -3158,7 +2330,7 @@
       <c r="E122" s="14"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" ht="20" customHeight="1">
+    <row r="123" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="5"/>
       <c r="B123" s="26"/>
       <c r="C123" s="14"/>
@@ -3166,7 +2338,7 @@
       <c r="E123" s="14"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" ht="20" customHeight="1">
+    <row r="124" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="5"/>
       <c r="B124" s="26"/>
       <c r="C124" s="14"/>
@@ -3174,7 +2346,7 @@
       <c r="E124" s="14"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" ht="20" customHeight="1">
+    <row r="125" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="5"/>
       <c r="B125" s="26"/>
       <c r="C125" s="14"/>
@@ -3182,7 +2354,7 @@
       <c r="E125" s="14"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" ht="20" customHeight="1">
+    <row r="126" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="5"/>
       <c r="B126" s="26"/>
       <c r="C126" s="14"/>
@@ -3190,7 +2362,7 @@
       <c r="E126" s="14"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" ht="20" customHeight="1">
+    <row r="127" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="5"/>
       <c r="B127" s="26"/>
       <c r="C127" s="14"/>
@@ -3198,7 +2370,7 @@
       <c r="E127" s="14"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" ht="20" customHeight="1">
+    <row r="128" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="5"/>
       <c r="B128" s="26"/>
       <c r="C128" s="14"/>
@@ -3206,7 +2378,7 @@
       <c r="E128" s="14"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" ht="20" customHeight="1">
+    <row r="129" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="5"/>
       <c r="B129" s="26"/>
       <c r="C129" s="14"/>
@@ -3214,7 +2386,7 @@
       <c r="E129" s="14"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" ht="20" customHeight="1">
+    <row r="130" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="5"/>
       <c r="B130" s="26"/>
       <c r="C130" s="14"/>
@@ -3222,7 +2394,7 @@
       <c r="E130" s="14"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" ht="20" customHeight="1">
+    <row r="131" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="5"/>
       <c r="B131" s="26"/>
       <c r="C131" s="14"/>
@@ -3230,7 +2402,7 @@
       <c r="E131" s="14"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" ht="20" customHeight="1">
+    <row r="132" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="5"/>
       <c r="B132" s="26"/>
       <c r="C132" s="14"/>
@@ -3238,7 +2410,7 @@
       <c r="E132" s="14"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" ht="20" customHeight="1">
+    <row r="133" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="5"/>
       <c r="B133" s="26"/>
       <c r="C133" s="14"/>
@@ -3246,7 +2418,7 @@
       <c r="E133" s="14"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" ht="20" customHeight="1">
+    <row r="134" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="5"/>
       <c r="B134" s="26"/>
       <c r="C134" s="14"/>
@@ -3254,7 +2426,7 @@
       <c r="E134" s="14"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" ht="20" customHeight="1">
+    <row r="135" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="5"/>
       <c r="B135" s="26"/>
       <c r="C135" s="14"/>
@@ -3262,7 +2434,7 @@
       <c r="E135" s="14"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" ht="20" customHeight="1">
+    <row r="136" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="5"/>
       <c r="B136" s="26"/>
       <c r="C136" s="14"/>
@@ -3270,7 +2442,7 @@
       <c r="E136" s="14"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" ht="20" customHeight="1">
+    <row r="137" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="5"/>
       <c r="B137" s="26"/>
       <c r="C137" s="14"/>
@@ -3278,7 +2450,7 @@
       <c r="E137" s="14"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" ht="20" customHeight="1">
+    <row r="138" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="5"/>
       <c r="B138" s="26"/>
       <c r="C138" s="14"/>
@@ -3286,7 +2458,7 @@
       <c r="E138" s="14"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" ht="20" customHeight="1">
+    <row r="139" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="5"/>
       <c r="B139" s="26"/>
       <c r="C139" s="14"/>
@@ -3294,7 +2466,7 @@
       <c r="E139" s="14"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" ht="20" customHeight="1">
+    <row r="140" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="5"/>
       <c r="B140" s="26"/>
       <c r="C140" s="14"/>
@@ -3302,7 +2474,7 @@
       <c r="E140" s="14"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" ht="20" customHeight="1">
+    <row r="141" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="5"/>
       <c r="B141" s="26"/>
       <c r="C141" s="14"/>
@@ -3310,7 +2482,7 @@
       <c r="E141" s="14"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" ht="20" customHeight="1">
+    <row r="142" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="5"/>
       <c r="B142" s="26"/>
       <c r="C142" s="14"/>
@@ -3318,7 +2490,7 @@
       <c r="E142" s="14"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" ht="20" customHeight="1">
+    <row r="143" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="5"/>
       <c r="B143" s="26"/>
       <c r="C143" s="14"/>
@@ -3326,7 +2498,7 @@
       <c r="E143" s="14"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" ht="20" customHeight="1">
+    <row r="144" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="5"/>
       <c r="B144" s="26"/>
       <c r="C144" s="14"/>
@@ -3334,7 +2506,7 @@
       <c r="E144" s="14"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" ht="20" customHeight="1">
+    <row r="145" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="5"/>
       <c r="B145" s="26"/>
       <c r="C145" s="14"/>
@@ -3342,7 +2514,7 @@
       <c r="E145" s="14"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" ht="20" customHeight="1">
+    <row r="146" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="5"/>
       <c r="B146" s="26"/>
       <c r="C146" s="14"/>
@@ -3350,7 +2522,7 @@
       <c r="E146" s="14"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" ht="20" customHeight="1">
+    <row r="147" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="5"/>
       <c r="B147" s="26"/>
       <c r="C147" s="14"/>
@@ -3358,7 +2530,7 @@
       <c r="E147" s="14"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" ht="20" customHeight="1">
+    <row r="148" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="5"/>
       <c r="B148" s="26"/>
       <c r="C148" s="14"/>
@@ -3366,7 +2538,7 @@
       <c r="E148" s="14"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" ht="20" customHeight="1">
+    <row r="149" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="5"/>
       <c r="B149" s="26"/>
       <c r="C149" s="14"/>
@@ -3374,7 +2546,7 @@
       <c r="E149" s="14"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" ht="20" customHeight="1">
+    <row r="150" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="5"/>
       <c r="B150" s="26"/>
       <c r="C150" s="14"/>
@@ -3382,7 +2554,7 @@
       <c r="E150" s="14"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" ht="20" customHeight="1">
+    <row r="151" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="5"/>
       <c r="B151" s="26"/>
       <c r="C151" s="14"/>
@@ -3390,7 +2562,7 @@
       <c r="E151" s="14"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" ht="20" customHeight="1">
+    <row r="152" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="5"/>
       <c r="B152" s="26"/>
       <c r="C152" s="14"/>
@@ -3398,7 +2570,7 @@
       <c r="E152" s="14"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" ht="20" customHeight="1">
+    <row r="153" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="5"/>
       <c r="B153" s="26"/>
       <c r="C153" s="14"/>
@@ -3406,7 +2578,7 @@
       <c r="E153" s="14"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" ht="20" customHeight="1">
+    <row r="154" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="5"/>
       <c r="B154" s="26"/>
       <c r="C154" s="14"/>
@@ -3414,7 +2586,7 @@
       <c r="E154" s="14"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" ht="20" customHeight="1">
+    <row r="155" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="5"/>
       <c r="B155" s="26"/>
       <c r="C155" s="14"/>
@@ -3422,7 +2594,7 @@
       <c r="E155" s="14"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" ht="20" customHeight="1">
+    <row r="156" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="5"/>
       <c r="B156" s="26"/>
       <c r="C156" s="14"/>
@@ -3430,7 +2602,7 @@
       <c r="E156" s="14"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" ht="20" customHeight="1">
+    <row r="157" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="5"/>
       <c r="B157" s="26"/>
       <c r="C157" s="14"/>
@@ -3438,7 +2610,7 @@
       <c r="E157" s="14"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" ht="20" customHeight="1">
+    <row r="158" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="5"/>
       <c r="B158" s="26"/>
       <c r="C158" s="14"/>
@@ -3446,7 +2618,7 @@
       <c r="E158" s="14"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" ht="20" customHeight="1">
+    <row r="159" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="5"/>
       <c r="B159" s="26"/>
       <c r="C159" s="14"/>
@@ -3454,7 +2626,7 @@
       <c r="E159" s="14"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" ht="20" customHeight="1">
+    <row r="160" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="5"/>
       <c r="B160" s="26"/>
       <c r="C160" s="14"/>
@@ -3462,7 +2634,7 @@
       <c r="E160" s="14"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" ht="20" customHeight="1">
+    <row r="161" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="5"/>
       <c r="B161" s="26"/>
       <c r="C161" s="14"/>
@@ -3470,7 +2642,7 @@
       <c r="E161" s="14"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" ht="20" customHeight="1">
+    <row r="162" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="5"/>
       <c r="B162" s="26"/>
       <c r="C162" s="14"/>
@@ -3478,7 +2650,7 @@
       <c r="E162" s="14"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" ht="20" customHeight="1">
+    <row r="163" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="5"/>
       <c r="B163" s="26"/>
       <c r="C163" s="14"/>
@@ -3486,7 +2658,7 @@
       <c r="E163" s="14"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" ht="20" customHeight="1">
+    <row r="164" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="5"/>
       <c r="B164" s="26"/>
       <c r="C164" s="14"/>
@@ -3494,7 +2666,7 @@
       <c r="E164" s="14"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" ht="20" customHeight="1">
+    <row r="165" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="5"/>
       <c r="B165" s="26"/>
       <c r="C165" s="14"/>
@@ -3502,7 +2674,7 @@
       <c r="E165" s="14"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" ht="20" customHeight="1">
+    <row r="166" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="5"/>
       <c r="B166" s="26"/>
       <c r="C166" s="14"/>
@@ -3510,7 +2682,7 @@
       <c r="E166" s="14"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" ht="20" customHeight="1">
+    <row r="167" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="5"/>
       <c r="B167" s="26"/>
       <c r="C167" s="14"/>
@@ -3518,7 +2690,7 @@
       <c r="E167" s="14"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" ht="20" customHeight="1">
+    <row r="168" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="5"/>
       <c r="B168" s="26"/>
       <c r="C168" s="14"/>
@@ -3526,7 +2698,7 @@
       <c r="E168" s="14"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" ht="20" customHeight="1">
+    <row r="169" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="5"/>
       <c r="B169" s="26"/>
       <c r="C169" s="14"/>
@@ -3534,7 +2706,7 @@
       <c r="E169" s="14"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" ht="20" customHeight="1">
+    <row r="170" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="5"/>
       <c r="B170" s="26"/>
       <c r="C170" s="14"/>
@@ -3542,7 +2714,7 @@
       <c r="E170" s="14"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" ht="20" customHeight="1">
+    <row r="171" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="5"/>
       <c r="B171" s="26"/>
       <c r="C171" s="14"/>
@@ -3550,7 +2722,7 @@
       <c r="E171" s="14"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" ht="20" customHeight="1">
+    <row r="172" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="5"/>
       <c r="B172" s="26"/>
       <c r="C172" s="14"/>
@@ -3558,7 +2730,7 @@
       <c r="E172" s="14"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" ht="20" customHeight="1">
+    <row r="173" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="5"/>
       <c r="B173" s="26"/>
       <c r="C173" s="14"/>
@@ -3566,7 +2738,7 @@
       <c r="E173" s="14"/>
       <c r="F173" s="4"/>
     </row>
-    <row r="174" ht="20" customHeight="1">
+    <row r="174" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="5"/>
       <c r="B174" s="26"/>
       <c r="C174" s="14"/>
@@ -3574,7 +2746,7 @@
       <c r="E174" s="14"/>
       <c r="F174" s="4"/>
     </row>
-    <row r="175" ht="20" customHeight="1">
+    <row r="175" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="5"/>
       <c r="B175" s="26"/>
       <c r="C175" s="14"/>
@@ -3582,7 +2754,7 @@
       <c r="E175" s="14"/>
       <c r="F175" s="4"/>
     </row>
-    <row r="176" ht="20" customHeight="1">
+    <row r="176" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="5"/>
       <c r="B176" s="26"/>
       <c r="C176" s="14"/>
@@ -3590,7 +2762,7 @@
       <c r="E176" s="14"/>
       <c r="F176" s="4"/>
     </row>
-    <row r="177" ht="20" customHeight="1">
+    <row r="177" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="5"/>
       <c r="B177" s="26"/>
       <c r="C177" s="14"/>
@@ -3598,7 +2770,7 @@
       <c r="E177" s="14"/>
       <c r="F177" s="4"/>
     </row>
-    <row r="178" ht="20" customHeight="1">
+    <row r="178" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="5"/>
       <c r="B178" s="26"/>
       <c r="C178" s="14"/>
@@ -3606,7 +2778,7 @@
       <c r="E178" s="14"/>
       <c r="F178" s="4"/>
     </row>
-    <row r="179" ht="20" customHeight="1">
+    <row r="179" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="5"/>
       <c r="B179" s="26"/>
       <c r="C179" s="14"/>
@@ -3614,7 +2786,7 @@
       <c r="E179" s="14"/>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" ht="20" customHeight="1">
+    <row r="180" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="5"/>
       <c r="B180" s="26"/>
       <c r="C180" s="14"/>
@@ -3622,7 +2794,7 @@
       <c r="E180" s="14"/>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" ht="20" customHeight="1">
+    <row r="181" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="5"/>
       <c r="B181" s="26"/>
       <c r="C181" s="14"/>
@@ -3630,7 +2802,7 @@
       <c r="E181" s="14"/>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" ht="20" customHeight="1">
+    <row r="182" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="5"/>
       <c r="B182" s="26"/>
       <c r="C182" s="14"/>
@@ -3638,7 +2810,7 @@
       <c r="E182" s="14"/>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" ht="20" customHeight="1">
+    <row r="183" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="5"/>
       <c r="B183" s="26"/>
       <c r="C183" s="14"/>
@@ -3646,7 +2818,7 @@
       <c r="E183" s="14"/>
       <c r="F183" s="4"/>
     </row>
-    <row r="184" ht="20" customHeight="1">
+    <row r="184" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="5"/>
       <c r="B184" s="26"/>
       <c r="C184" s="14"/>
@@ -3654,7 +2826,7 @@
       <c r="E184" s="14"/>
       <c r="F184" s="4"/>
     </row>
-    <row r="185" ht="20" customHeight="1">
+    <row r="185" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="5"/>
       <c r="B185" s="26"/>
       <c r="C185" s="14"/>
@@ -3662,7 +2834,7 @@
       <c r="E185" s="14"/>
       <c r="F185" s="4"/>
     </row>
-    <row r="186" ht="20" customHeight="1">
+    <row r="186" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="5"/>
       <c r="B186" s="26"/>
       <c r="C186" s="14"/>
@@ -3670,7 +2842,7 @@
       <c r="E186" s="14"/>
       <c r="F186" s="4"/>
     </row>
-    <row r="187" ht="20" customHeight="1">
+    <row r="187" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="5"/>
       <c r="B187" s="26"/>
       <c r="C187" s="14"/>
@@ -3678,7 +2850,7 @@
       <c r="E187" s="14"/>
       <c r="F187" s="4"/>
     </row>
-    <row r="188" ht="20" customHeight="1">
+    <row r="188" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="5"/>
       <c r="B188" s="26"/>
       <c r="C188" s="14"/>
@@ -3686,7 +2858,7 @@
       <c r="E188" s="14"/>
       <c r="F188" s="4"/>
     </row>
-    <row r="189" ht="20" customHeight="1">
+    <row r="189" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="5"/>
       <c r="B189" s="26"/>
       <c r="C189" s="14"/>
@@ -3694,7 +2866,7 @@
       <c r="E189" s="14"/>
       <c r="F189" s="4"/>
     </row>
-    <row r="190" ht="20" customHeight="1">
+    <row r="190" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="5"/>
       <c r="B190" s="26"/>
       <c r="C190" s="14"/>
@@ -3702,7 +2874,7 @@
       <c r="E190" s="14"/>
       <c r="F190" s="4"/>
     </row>
-    <row r="191" ht="20" customHeight="1">
+    <row r="191" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="5"/>
       <c r="B191" s="26"/>
       <c r="C191" s="14"/>
@@ -3710,7 +2882,7 @@
       <c r="E191" s="14"/>
       <c r="F191" s="4"/>
     </row>
-    <row r="192" ht="20" customHeight="1">
+    <row r="192" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="5"/>
       <c r="B192" s="26"/>
       <c r="C192" s="14"/>
@@ -3718,7 +2890,7 @@
       <c r="E192" s="14"/>
       <c r="F192" s="4"/>
     </row>
-    <row r="193" ht="20" customHeight="1">
+    <row r="193" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="5"/>
       <c r="B193" s="26"/>
       <c r="C193" s="14"/>
@@ -3726,7 +2898,7 @@
       <c r="E193" s="14"/>
       <c r="F193" s="4"/>
     </row>
-    <row r="194" ht="20" customHeight="1">
+    <row r="194" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="5"/>
       <c r="B194" s="26"/>
       <c r="C194" s="14"/>
@@ -3734,7 +2906,7 @@
       <c r="E194" s="14"/>
       <c r="F194" s="4"/>
     </row>
-    <row r="195" ht="20" customHeight="1">
+    <row r="195" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="5"/>
       <c r="B195" s="26"/>
       <c r="C195" s="14"/>
@@ -3742,7 +2914,7 @@
       <c r="E195" s="14"/>
       <c r="F195" s="4"/>
     </row>
-    <row r="196" ht="20" customHeight="1">
+    <row r="196" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="5"/>
       <c r="B196" s="26"/>
       <c r="C196" s="14"/>
@@ -3750,7 +2922,7 @@
       <c r="E196" s="14"/>
       <c r="F196" s="4"/>
     </row>
-    <row r="197" ht="20" customHeight="1">
+    <row r="197" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="5"/>
       <c r="B197" s="26"/>
       <c r="C197" s="14"/>
@@ -3758,7 +2930,7 @@
       <c r="E197" s="14"/>
       <c r="F197" s="4"/>
     </row>
-    <row r="198" ht="20" customHeight="1">
+    <row r="198" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="5"/>
       <c r="B198" s="26"/>
       <c r="C198" s="14"/>
@@ -3766,7 +2938,7 @@
       <c r="E198" s="14"/>
       <c r="F198" s="4"/>
     </row>
-    <row r="199" ht="20" customHeight="1">
+    <row r="199" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="5"/>
       <c r="B199" s="26"/>
       <c r="C199" s="14"/>
@@ -3774,7 +2946,7 @@
       <c r="E199" s="14"/>
       <c r="F199" s="4"/>
     </row>
-    <row r="200" ht="20" customHeight="1">
+    <row r="200" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="5"/>
       <c r="B200" s="26"/>
       <c r="C200" s="14"/>
@@ -3782,7 +2954,7 @@
       <c r="E200" s="14"/>
       <c r="F200" s="4"/>
     </row>
-    <row r="201" ht="20" customHeight="1">
+    <row r="201" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="5"/>
       <c r="B201" s="26"/>
       <c r="C201" s="14"/>
@@ -3790,7 +2962,7 @@
       <c r="E201" s="14"/>
       <c r="F201" s="4"/>
     </row>
-    <row r="202" ht="20" customHeight="1">
+    <row r="202" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="5"/>
       <c r="B202" s="26"/>
       <c r="C202" s="14"/>
@@ -3798,7 +2970,7 @@
       <c r="E202" s="14"/>
       <c r="F202" s="4"/>
     </row>
-    <row r="203" ht="20" customHeight="1">
+    <row r="203" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="5"/>
       <c r="B203" s="26"/>
       <c r="C203" s="14"/>
@@ -3806,7 +2978,7 @@
       <c r="E203" s="14"/>
       <c r="F203" s="4"/>
     </row>
-    <row r="204" ht="20" customHeight="1">
+    <row r="204" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="5"/>
       <c r="B204" s="26"/>
       <c r="C204" s="14"/>
@@ -3814,7 +2986,7 @@
       <c r="E204" s="14"/>
       <c r="F204" s="4"/>
     </row>
-    <row r="205" ht="20" customHeight="1">
+    <row r="205" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="5"/>
       <c r="B205" s="26"/>
       <c r="C205" s="14"/>
@@ -3822,7 +2994,7 @@
       <c r="E205" s="14"/>
       <c r="F205" s="4"/>
     </row>
-    <row r="206" ht="20" customHeight="1">
+    <row r="206" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="5"/>
       <c r="B206" s="26"/>
       <c r="C206" s="14"/>
@@ -3830,7 +3002,7 @@
       <c r="E206" s="14"/>
       <c r="F206" s="4"/>
     </row>
-    <row r="207" ht="20" customHeight="1">
+    <row r="207" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="5"/>
       <c r="B207" s="26"/>
       <c r="C207" s="14"/>
@@ -3838,7 +3010,7 @@
       <c r="E207" s="14"/>
       <c r="F207" s="4"/>
     </row>
-    <row r="208" ht="20" customHeight="1">
+    <row r="208" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="5"/>
       <c r="B208" s="26"/>
       <c r="C208" s="14"/>
@@ -3846,7 +3018,7 @@
       <c r="E208" s="14"/>
       <c r="F208" s="4"/>
     </row>
-    <row r="209" ht="20" customHeight="1">
+    <row r="209" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="5"/>
       <c r="B209" s="26"/>
       <c r="C209" s="14"/>
@@ -3854,7 +3026,7 @@
       <c r="E209" s="14"/>
       <c r="F209" s="4"/>
     </row>
-    <row r="210" ht="20" customHeight="1">
+    <row r="210" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="5"/>
       <c r="B210" s="26"/>
       <c r="C210" s="14"/>
@@ -3862,7 +3034,7 @@
       <c r="E210" s="14"/>
       <c r="F210" s="4"/>
     </row>
-    <row r="211" ht="20" customHeight="1">
+    <row r="211" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="5"/>
       <c r="B211" s="26"/>
       <c r="C211" s="14"/>
@@ -3870,7 +3042,7 @@
       <c r="E211" s="14"/>
       <c r="F211" s="4"/>
     </row>
-    <row r="212" ht="20" customHeight="1">
+    <row r="212" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="5"/>
       <c r="B212" s="26"/>
       <c r="C212" s="14"/>
@@ -3878,7 +3050,7 @@
       <c r="E212" s="14"/>
       <c r="F212" s="4"/>
     </row>
-    <row r="213" ht="20" customHeight="1">
+    <row r="213" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="5"/>
       <c r="B213" s="26"/>
       <c r="C213" s="14"/>
@@ -3886,7 +3058,7 @@
       <c r="E213" s="14"/>
       <c r="F213" s="4"/>
     </row>
-    <row r="214" ht="20" customHeight="1">
+    <row r="214" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="5"/>
       <c r="B214" s="26"/>
       <c r="C214" s="14"/>
@@ -3894,7 +3066,7 @@
       <c r="E214" s="14"/>
       <c r="F214" s="4"/>
     </row>
-    <row r="215" ht="20" customHeight="1">
+    <row r="215" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="5"/>
       <c r="B215" s="26"/>
       <c r="C215" s="14"/>
@@ -3902,7 +3074,7 @@
       <c r="E215" s="14"/>
       <c r="F215" s="4"/>
     </row>
-    <row r="216" ht="20" customHeight="1">
+    <row r="216" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="5"/>
       <c r="B216" s="26"/>
       <c r="C216" s="14"/>
@@ -3910,7 +3082,7 @@
       <c r="E216" s="14"/>
       <c r="F216" s="4"/>
     </row>
-    <row r="217" ht="20" customHeight="1">
+    <row r="217" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="5"/>
       <c r="B217" s="26"/>
       <c r="C217" s="14"/>
@@ -3918,7 +3090,7 @@
       <c r="E217" s="14"/>
       <c r="F217" s="4"/>
     </row>
-    <row r="218" ht="20" customHeight="1">
+    <row r="218" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="5"/>
       <c r="B218" s="26"/>
       <c r="C218" s="14"/>
@@ -3926,7 +3098,7 @@
       <c r="E218" s="14"/>
       <c r="F218" s="4"/>
     </row>
-    <row r="219" ht="20" customHeight="1">
+    <row r="219" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="5"/>
       <c r="B219" s="26"/>
       <c r="C219" s="14"/>
@@ -3934,7 +3106,7 @@
       <c r="E219" s="14"/>
       <c r="F219" s="4"/>
     </row>
-    <row r="220" ht="20" customHeight="1">
+    <row r="220" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="5"/>
       <c r="B220" s="26"/>
       <c r="C220" s="14"/>
@@ -3942,7 +3114,7 @@
       <c r="E220" s="14"/>
       <c r="F220" s="4"/>
     </row>
-    <row r="221" ht="20" customHeight="1">
+    <row r="221" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="5"/>
       <c r="B221" s="26"/>
       <c r="C221" s="14"/>
@@ -3950,7 +3122,7 @@
       <c r="E221" s="14"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="20" customHeight="1">
+    <row r="222" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="5"/>
       <c r="B222" s="26"/>
       <c r="C222" s="14"/>
@@ -3958,7 +3130,7 @@
       <c r="E222" s="14"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="20" customHeight="1">
+    <row r="223" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="5"/>
       <c r="B223" s="26"/>
       <c r="C223" s="14"/>
@@ -3966,7 +3138,7 @@
       <c r="E223" s="14"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" ht="20" customHeight="1">
+    <row r="224" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="5"/>
       <c r="B224" s="26"/>
       <c r="C224" s="14"/>
@@ -3974,7 +3146,7 @@
       <c r="E224" s="14"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" ht="20" customHeight="1">
+    <row r="225" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="5"/>
       <c r="B225" s="26"/>
       <c r="C225" s="14"/>
@@ -3982,7 +3154,7 @@
       <c r="E225" s="14"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="20" customHeight="1">
+    <row r="226" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="5"/>
       <c r="B226" s="26"/>
       <c r="C226" s="14"/>
@@ -3990,7 +3162,7 @@
       <c r="E226" s="14"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="20" customHeight="1">
+    <row r="227" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="5"/>
       <c r="B227" s="26"/>
       <c r="C227" s="14"/>
@@ -3998,7 +3170,7 @@
       <c r="E227" s="14"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="20" customHeight="1">
+    <row r="228" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="5"/>
       <c r="B228" s="26"/>
       <c r="C228" s="14"/>
@@ -4006,7 +3178,7 @@
       <c r="E228" s="14"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="20" customHeight="1">
+    <row r="229" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="5"/>
       <c r="B229" s="26"/>
       <c r="C229" s="14"/>
@@ -4014,7 +3186,7 @@
       <c r="E229" s="14"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" ht="20" customHeight="1">
+    <row r="230" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="5"/>
       <c r="B230" s="26"/>
       <c r="C230" s="14"/>
@@ -4022,7 +3194,7 @@
       <c r="E230" s="14"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" ht="20" customHeight="1">
+    <row r="231" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="5"/>
       <c r="B231" s="26"/>
       <c r="C231" s="14"/>
@@ -4030,7 +3202,7 @@
       <c r="E231" s="14"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="20" customHeight="1">
+    <row r="232" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="5"/>
       <c r="B232" s="26"/>
       <c r="C232" s="14"/>
@@ -4038,7 +3210,7 @@
       <c r="E232" s="14"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="20" customHeight="1">
+    <row r="233" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="5"/>
       <c r="B233" s="26"/>
       <c r="C233" s="14"/>
@@ -4046,7 +3218,7 @@
       <c r="E233" s="14"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" ht="20" customHeight="1">
+    <row r="234" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="5"/>
       <c r="B234" s="26"/>
       <c r="C234" s="14"/>
@@ -4054,7 +3226,7 @@
       <c r="E234" s="14"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="20" customHeight="1">
+    <row r="235" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="5"/>
       <c r="B235" s="26"/>
       <c r="C235" s="14"/>
@@ -4062,7 +3234,7 @@
       <c r="E235" s="14"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" ht="20" customHeight="1">
+    <row r="236" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="5"/>
       <c r="B236" s="26"/>
       <c r="C236" s="14"/>
@@ -4070,7 +3242,7 @@
       <c r="E236" s="14"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="20" customHeight="1">
+    <row r="237" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="5"/>
       <c r="B237" s="26"/>
       <c r="C237" s="14"/>
@@ -4078,7 +3250,7 @@
       <c r="E237" s="14"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="20" customHeight="1">
+    <row r="238" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="5"/>
       <c r="B238" s="26"/>
       <c r="C238" s="14"/>
@@ -4086,7 +3258,7 @@
       <c r="E238" s="14"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="20" customHeight="1">
+    <row r="239" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="5"/>
       <c r="B239" s="26"/>
       <c r="C239" s="14"/>
@@ -4094,7 +3266,7 @@
       <c r="E239" s="14"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" ht="20" customHeight="1">
+    <row r="240" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="5"/>
       <c r="B240" s="26"/>
       <c r="C240" s="14"/>
@@ -4102,7 +3274,7 @@
       <c r="E240" s="14"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="20" customHeight="1">
+    <row r="241" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="5"/>
       <c r="B241" s="26"/>
       <c r="C241" s="14"/>
@@ -4110,7 +3282,7 @@
       <c r="E241" s="14"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="20" customHeight="1">
+    <row r="242" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="5"/>
       <c r="B242" s="26"/>
       <c r="C242" s="14"/>
@@ -4118,7 +3290,7 @@
       <c r="E242" s="14"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="20" customHeight="1">
+    <row r="243" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="5"/>
       <c r="B243" s="26"/>
       <c r="C243" s="14"/>
@@ -4126,7 +3298,7 @@
       <c r="E243" s="14"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="20" customHeight="1">
+    <row r="244" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="5"/>
       <c r="B244" s="26"/>
       <c r="C244" s="14"/>
@@ -4134,7 +3306,7 @@
       <c r="E244" s="14"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" ht="20" customHeight="1">
+    <row r="245" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="5"/>
       <c r="B245" s="26"/>
       <c r="C245" s="14"/>
@@ -4142,7 +3314,7 @@
       <c r="E245" s="14"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="20" customHeight="1">
+    <row r="246" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="5"/>
       <c r="B246" s="26"/>
       <c r="C246" s="14"/>
@@ -4150,7 +3322,7 @@
       <c r="E246" s="14"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="20" customHeight="1">
+    <row r="247" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="5"/>
       <c r="B247" s="26"/>
       <c r="C247" s="14"/>
@@ -4158,7 +3330,7 @@
       <c r="E247" s="14"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="20" customHeight="1">
+    <row r="248" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="5"/>
       <c r="B248" s="26"/>
       <c r="C248" s="14"/>
@@ -4166,7 +3338,7 @@
       <c r="E248" s="14"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="20" customHeight="1">
+    <row r="249" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="5"/>
       <c r="B249" s="26"/>
       <c r="C249" s="14"/>
@@ -4174,7 +3346,7 @@
       <c r="E249" s="14"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="20" customHeight="1">
+    <row r="250" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="5"/>
       <c r="B250" s="26"/>
       <c r="C250" s="14"/>
@@ -4182,7 +3354,7 @@
       <c r="E250" s="14"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="20" customHeight="1">
+    <row r="251" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="5"/>
       <c r="B251" s="26"/>
       <c r="C251" s="14"/>
@@ -4190,7 +3362,7 @@
       <c r="E251" s="14"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" ht="20" customHeight="1">
+    <row r="252" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="5"/>
       <c r="B252" s="26"/>
       <c r="C252" s="14"/>
@@ -4198,7 +3370,7 @@
       <c r="E252" s="14"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="20" customHeight="1">
+    <row r="253" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="5"/>
       <c r="B253" s="26"/>
       <c r="C253" s="14"/>
@@ -4206,7 +3378,7 @@
       <c r="E253" s="14"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" ht="20" customHeight="1">
+    <row r="254" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="5"/>
       <c r="B254" s="26"/>
       <c r="C254" s="14"/>
@@ -4214,7 +3386,7 @@
       <c r="E254" s="14"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="20" customHeight="1">
+    <row r="255" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="5"/>
       <c r="B255" s="26"/>
       <c r="C255" s="14"/>
@@ -4222,7 +3394,7 @@
       <c r="E255" s="14"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="20" customHeight="1">
+    <row r="256" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="5"/>
       <c r="B256" s="26"/>
       <c r="C256" s="14"/>
@@ -4230,7 +3402,7 @@
       <c r="E256" s="14"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="20" customHeight="1">
+    <row r="257" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="6"/>
@@ -4238,7 +3410,7 @@
       <c r="E257" s="6"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" ht="20" customHeight="1">
+    <row r="258" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -4246,7 +3418,7 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" ht="20" customHeight="1">
+    <row r="259" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -4254,7 +3426,7 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" ht="20" customHeight="1">
+    <row r="260" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -4262,7 +3434,7 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" ht="20" customHeight="1">
+    <row r="261" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -4270,7 +3442,7 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" ht="20" customHeight="1">
+    <row r="262" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -4278,7 +3450,7 @@
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" ht="20" customHeight="1">
+    <row r="263" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -4286,7 +3458,7 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" ht="20" customHeight="1">
+    <row r="264" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -4294,7 +3466,7 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" ht="20" customHeight="1">
+    <row r="265" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -4302,7 +3474,7 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" ht="20" customHeight="1">
+    <row r="266" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -4310,7 +3482,7 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" ht="20" customHeight="1">
+    <row r="267" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -4318,7 +3490,7 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" ht="20" customHeight="1">
+    <row r="268" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -4326,7 +3498,7 @@
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" ht="20" customHeight="1">
+    <row r="269" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -4334,7 +3506,7 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" ht="20" customHeight="1">
+    <row r="270" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -4342,7 +3514,7 @@
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" ht="20" customHeight="1">
+    <row r="271" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -4350,7 +3522,7 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" ht="20" customHeight="1">
+    <row r="272" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -4358,7 +3530,7 @@
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" ht="20" customHeight="1">
+    <row r="273" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -4366,7 +3538,7 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" ht="20" customHeight="1">
+    <row r="274" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -4374,7 +3546,7 @@
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" ht="20" customHeight="1">
+    <row r="275" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -4382,7 +3554,7 @@
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" ht="20" customHeight="1">
+    <row r="276" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -4390,7 +3562,7 @@
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" ht="20" customHeight="1">
+    <row r="277" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -4398,7 +3570,7 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" ht="20" customHeight="1">
+    <row r="278" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -4406,7 +3578,7 @@
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" ht="20" customHeight="1">
+    <row r="279" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -4414,7 +3586,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" ht="20" customHeight="1">
+    <row r="280" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -4422,7 +3594,7 @@
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" ht="20" customHeight="1">
+    <row r="281" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -4430,7 +3602,7 @@
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" ht="20" customHeight="1">
+    <row r="282" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -4438,7 +3610,7 @@
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" ht="20" customHeight="1">
+    <row r="283" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -4446,7 +3618,7 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" ht="20" customHeight="1">
+    <row r="284" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -4454,7 +3626,7 @@
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" ht="20" customHeight="1">
+    <row r="285" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -4462,7 +3634,7 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" ht="20" customHeight="1">
+    <row r="286" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -4470,7 +3642,7 @@
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" ht="20" customHeight="1">
+    <row r="287" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -4478,7 +3650,7 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" ht="20" customHeight="1">
+    <row r="288" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -4486,7 +3658,7 @@
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" ht="20" customHeight="1">
+    <row r="289" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -4494,7 +3666,7 @@
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" ht="20" customHeight="1">
+    <row r="290" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -4502,7 +3674,7 @@
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" ht="20" customHeight="1">
+    <row r="291" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -4510,7 +3682,7 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" ht="20" customHeight="1">
+    <row r="292" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -4518,7 +3690,7 @@
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" ht="20" customHeight="1">
+    <row r="293" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -4526,7 +3698,7 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" ht="20" customHeight="1">
+    <row r="294" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -4534,7 +3706,7 @@
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295" ht="20" customHeight="1">
+    <row r="295" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -4542,7 +3714,7 @@
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" ht="20" customHeight="1">
+    <row r="296" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -4550,7 +3722,7 @@
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" ht="20" customHeight="1">
+    <row r="297" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -4558,7 +3730,7 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" ht="20" customHeight="1">
+    <row r="298" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -4566,7 +3738,7 @@
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299" ht="20" customHeight="1">
+    <row r="299" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -4574,7 +3746,7 @@
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" ht="20" customHeight="1">
+    <row r="300" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -4582,7 +3754,7 @@
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" ht="20" customHeight="1">
+    <row r="301" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -4590,7 +3762,7 @@
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" ht="20" customHeight="1">
+    <row r="302" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -4598,7 +3770,7 @@
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303" ht="20" customHeight="1">
+    <row r="303" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -4606,7 +3778,7 @@
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" ht="20" customHeight="1">
+    <row r="304" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -4614,7 +3786,7 @@
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
-    <row r="305" ht="20" customHeight="1">
+    <row r="305" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -4622,7 +3794,7 @@
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" ht="20" customHeight="1">
+    <row r="306" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -4630,7 +3802,7 @@
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307" ht="20" customHeight="1">
+    <row r="307" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -4638,7 +3810,7 @@
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" ht="20" customHeight="1">
+    <row r="308" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -4646,7 +3818,7 @@
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309" ht="20" customHeight="1">
+    <row r="309" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -4654,7 +3826,7 @@
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" ht="20" customHeight="1">
+    <row r="310" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -4662,7 +3834,7 @@
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311" ht="20" customHeight="1">
+    <row r="311" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -4670,7 +3842,7 @@
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" ht="20" customHeight="1">
+    <row r="312" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -4678,7 +3850,7 @@
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" ht="20" customHeight="1">
+    <row r="313" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -4686,7 +3858,7 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" ht="20" customHeight="1">
+    <row r="314" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -4694,7 +3866,7 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
-    <row r="315" ht="20" customHeight="1">
+    <row r="315" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -4702,7 +3874,7 @@
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" ht="20" customHeight="1">
+    <row r="316" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -4710,7 +3882,7 @@
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" ht="20" customHeight="1">
+    <row r="317" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -4718,7 +3890,7 @@
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" ht="20" customHeight="1">
+    <row r="318" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -4726,7 +3898,7 @@
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319" ht="20" customHeight="1">
+    <row r="319" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -4734,7 +3906,7 @@
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" ht="20" customHeight="1">
+    <row r="320" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -4742,7 +3914,7 @@
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321" ht="20" customHeight="1">
+    <row r="321" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -4750,7 +3922,7 @@
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" ht="20" customHeight="1">
+    <row r="322" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -4758,7 +3930,7 @@
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323" ht="20" customHeight="1">
+    <row r="323" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -4766,7 +3938,7 @@
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" ht="20" customHeight="1">
+    <row r="324" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -4774,7 +3946,7 @@
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
-    <row r="325" ht="20" customHeight="1">
+    <row r="325" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -4782,7 +3954,7 @@
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" ht="20" customHeight="1">
+    <row r="326" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -4790,7 +3962,7 @@
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327" ht="20" customHeight="1">
+    <row r="327" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -4798,7 +3970,7 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" ht="20" customHeight="1">
+    <row r="328" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -4806,7 +3978,7 @@
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" ht="20" customHeight="1">
+    <row r="329" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -4814,7 +3986,7 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" ht="20" customHeight="1">
+    <row r="330" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -4822,7 +3994,7 @@
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331" ht="20" customHeight="1">
+    <row r="331" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -4830,7 +4002,7 @@
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" ht="20" customHeight="1">
+    <row r="332" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -4838,7 +4010,7 @@
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" ht="20" customHeight="1">
+    <row r="333" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -4846,7 +4018,7 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" ht="20" customHeight="1">
+    <row r="334" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -4854,7 +4026,7 @@
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" ht="20" customHeight="1">
+    <row r="335" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -4862,7 +4034,7 @@
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" ht="20" customHeight="1">
+    <row r="336" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -4870,7 +4042,7 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337" ht="20" customHeight="1">
+    <row r="337" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -4878,7 +4050,7 @@
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" ht="20" customHeight="1">
+    <row r="338" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -4886,7 +4058,7 @@
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" ht="20" customHeight="1">
+    <row r="339" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -4894,7 +4066,7 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" ht="20" customHeight="1">
+    <row r="340" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -4902,7 +4074,7 @@
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" ht="20" customHeight="1">
+    <row r="341" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -4910,7 +4082,7 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" ht="20" customHeight="1">
+    <row r="342" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -4918,7 +4090,7 @@
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" ht="20" customHeight="1">
+    <row r="343" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -4926,7 +4098,7 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" ht="20" customHeight="1">
+    <row r="344" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -4934,7 +4106,7 @@
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" ht="20" customHeight="1">
+    <row r="345" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -4942,7 +4114,7 @@
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" ht="20" customHeight="1">
+    <row r="346" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -4950,7 +4122,7 @@
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" ht="20" customHeight="1">
+    <row r="347" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -4958,7 +4130,7 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" ht="20" customHeight="1">
+    <row r="348" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -4966,7 +4138,7 @@
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" ht="20" customHeight="1">
+    <row r="349" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -4974,7 +4146,7 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" ht="20" customHeight="1">
+    <row r="350" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -4982,7 +4154,7 @@
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" ht="20" customHeight="1">
+    <row r="351" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -4990,7 +4162,7 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" ht="20" customHeight="1">
+    <row r="352" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -4998,7 +4170,7 @@
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" ht="20" customHeight="1">
+    <row r="353" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -5006,7 +4178,7 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" ht="20" customHeight="1">
+    <row r="354" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -5014,7 +4186,7 @@
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" ht="20" customHeight="1">
+    <row r="355" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -5022,7 +4194,7 @@
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" ht="20" customHeight="1">
+    <row r="356" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -5030,7 +4202,7 @@
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" ht="20" customHeight="1">
+    <row r="357" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -5038,7 +4210,7 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" ht="20" customHeight="1">
+    <row r="358" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -5046,7 +4218,7 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" ht="20" customHeight="1">
+    <row r="359" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -5054,7 +4226,7 @@
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" ht="20" customHeight="1">
+    <row r="360" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -5062,7 +4234,7 @@
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" ht="20" customHeight="1">
+    <row r="361" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -5070,7 +4242,7 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" ht="20" customHeight="1">
+    <row r="362" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -5078,7 +4250,7 @@
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" ht="20" customHeight="1">
+    <row r="363" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -5086,7 +4258,7 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" ht="20" customHeight="1">
+    <row r="364" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -5094,7 +4266,7 @@
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" ht="20" customHeight="1">
+    <row r="365" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -5102,7 +4274,7 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" ht="20" customHeight="1">
+    <row r="366" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -5110,7 +4282,7 @@
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" ht="20" customHeight="1">
+    <row r="367" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -5118,7 +4290,7 @@
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" ht="20" customHeight="1">
+    <row r="368" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -5126,7 +4298,7 @@
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" ht="20" customHeight="1">
+    <row r="369" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -5134,7 +4306,7 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" ht="20" customHeight="1">
+    <row r="370" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -5142,7 +4314,7 @@
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" ht="20" customHeight="1">
+    <row r="371" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -5150,7 +4322,7 @@
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" ht="20" customHeight="1">
+    <row r="372" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -5158,7 +4330,7 @@
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" ht="20" customHeight="1">
+    <row r="373" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -5166,7 +4338,7 @@
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" ht="20" customHeight="1">
+    <row r="374" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -5174,7 +4346,7 @@
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" ht="20" customHeight="1">
+    <row r="375" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -5182,7 +4354,7 @@
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" ht="20" customHeight="1">
+    <row r="376" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -5190,7 +4362,7 @@
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" ht="20" customHeight="1">
+    <row r="377" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -5198,7 +4370,7 @@
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" ht="20" customHeight="1">
+    <row r="378" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -5206,7 +4378,7 @@
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" ht="20" customHeight="1">
+    <row r="379" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -5214,7 +4386,7 @@
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" ht="20" customHeight="1">
+    <row r="380" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -5222,7 +4394,7 @@
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381" ht="20" customHeight="1">
+    <row r="381" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -5230,7 +4402,7 @@
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" ht="20" customHeight="1">
+    <row r="382" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -5238,7 +4410,7 @@
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" ht="20" customHeight="1">
+    <row r="383" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -5246,7 +4418,7 @@
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" ht="20" customHeight="1">
+    <row r="384" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -5254,7 +4426,7 @@
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" ht="20" customHeight="1">
+    <row r="385" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -5262,7 +4434,7 @@
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" ht="20" customHeight="1">
+    <row r="386" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -5270,7 +4442,7 @@
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" ht="20" customHeight="1">
+    <row r="387" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -5278,7 +4450,7 @@
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" ht="20" customHeight="1">
+    <row r="388" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -5286,7 +4458,7 @@
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" ht="20" customHeight="1">
+    <row r="389" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -5294,7 +4466,7 @@
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" ht="20" customHeight="1">
+    <row r="390" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -5302,7 +4474,7 @@
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" ht="20" customHeight="1">
+    <row r="391" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -5310,7 +4482,7 @@
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" ht="20" customHeight="1">
+    <row r="392" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -5318,7 +4490,7 @@
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393" ht="20" customHeight="1">
+    <row r="393" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -5326,7 +4498,7 @@
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" ht="20" customHeight="1">
+    <row r="394" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -5334,7 +4506,7 @@
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" ht="20" customHeight="1">
+    <row r="395" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -5342,7 +4514,7 @@
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" ht="20" customHeight="1">
+    <row r="396" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -5350,7 +4522,7 @@
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" ht="20" customHeight="1">
+    <row r="397" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -5358,7 +4530,7 @@
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" ht="20" customHeight="1">
+    <row r="398" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -5366,7 +4538,7 @@
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" ht="20" customHeight="1">
+    <row r="399" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -5374,7 +4546,7 @@
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" ht="20" customHeight="1">
+    <row r="400" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -5382,7 +4554,7 @@
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401" ht="20" customHeight="1">
+    <row r="401" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -5390,7 +4562,7 @@
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" ht="20" customHeight="1">
+    <row r="402" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -5398,7 +4570,7 @@
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" ht="20" customHeight="1">
+    <row r="403" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -5406,7 +4578,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" ht="20" customHeight="1">
+    <row r="404" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -5414,7 +4586,7 @@
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" ht="20" customHeight="1">
+    <row r="405" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -5422,7 +4594,7 @@
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" ht="20" customHeight="1">
+    <row r="406" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -5430,7 +4602,7 @@
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407" ht="20" customHeight="1">
+    <row r="407" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -5438,7 +4610,7 @@
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" ht="20" customHeight="1">
+    <row r="408" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -5446,7 +4618,7 @@
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409" ht="20" customHeight="1">
+    <row r="409" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -5454,7 +4626,7 @@
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" ht="20" customHeight="1">
+    <row r="410" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -5462,7 +4634,7 @@
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411" ht="20" customHeight="1">
+    <row r="411" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -5470,7 +4642,7 @@
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" ht="20" customHeight="1">
+    <row r="412" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -5478,7 +4650,7 @@
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413" ht="20" customHeight="1">
+    <row r="413" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -5486,7 +4658,7 @@
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" ht="20" customHeight="1">
+    <row r="414" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -5494,7 +4666,7 @@
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" ht="20" customHeight="1">
+    <row r="415" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -5502,7 +4674,7 @@
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" ht="20" customHeight="1">
+    <row r="416" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -5510,7 +4682,7 @@
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" ht="20" customHeight="1">
+    <row r="417" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -5518,7 +4690,7 @@
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" ht="20" customHeight="1">
+    <row r="418" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -5526,7 +4698,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419" ht="20" customHeight="1">
+    <row r="419" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -5534,7 +4706,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" ht="20" customHeight="1">
+    <row r="420" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -5542,7 +4714,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
     </row>
-    <row r="421" ht="20" customHeight="1">
+    <row r="421" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -5550,7 +4722,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" ht="20" customHeight="1">
+    <row r="422" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -5558,7 +4730,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423" ht="20" customHeight="1">
+    <row r="423" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -5566,7 +4738,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" ht="20" customHeight="1">
+    <row r="424" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -5574,7 +4746,7 @@
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" ht="20" customHeight="1">
+    <row r="425" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -5582,7 +4754,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" ht="20" customHeight="1">
+    <row r="426" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -5590,7 +4762,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427" ht="20" customHeight="1">
+    <row r="427" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -5598,7 +4770,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" ht="20" customHeight="1">
+    <row r="428" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -5606,7 +4778,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" ht="20" customHeight="1">
+    <row r="429" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -5614,7 +4786,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" ht="20" customHeight="1">
+    <row r="430" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -5622,7 +4794,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431" ht="20" customHeight="1">
+    <row r="431" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -5630,7 +4802,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" ht="20" customHeight="1">
+    <row r="432" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -5638,7 +4810,7 @@
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433" ht="20" customHeight="1">
+    <row r="433" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -5646,7 +4818,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" ht="20" customHeight="1">
+    <row r="434" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -5654,7 +4826,7 @@
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" ht="20" customHeight="1">
+    <row r="435" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -5662,7 +4834,7 @@
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" ht="20" customHeight="1">
+    <row r="436" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -5670,7 +4842,7 @@
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437" ht="20" customHeight="1">
+    <row r="437" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -5678,7 +4850,7 @@
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" ht="20" customHeight="1">
+    <row r="438" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -5686,7 +4858,7 @@
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439" ht="20" customHeight="1">
+    <row r="439" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -5694,7 +4866,7 @@
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" ht="20" customHeight="1">
+    <row r="440" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -5702,7 +4874,7 @@
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441" ht="20" customHeight="1">
+    <row r="441" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -5710,7 +4882,7 @@
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" ht="20" customHeight="1">
+    <row r="442" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -5718,7 +4890,7 @@
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443" ht="20" customHeight="1">
+    <row r="443" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -5726,7 +4898,7 @@
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" ht="20" customHeight="1">
+    <row r="444" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -5734,7 +4906,7 @@
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" ht="20" customHeight="1">
+    <row r="445" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -5742,7 +4914,7 @@
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" ht="20" customHeight="1">
+    <row r="446" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -5750,7 +4922,7 @@
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447" ht="20" customHeight="1">
+    <row r="447" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -5758,7 +4930,7 @@
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" ht="20" customHeight="1">
+    <row r="448" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -5766,7 +4938,7 @@
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" ht="20" customHeight="1">
+    <row r="449" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -5774,7 +4946,7 @@
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" ht="20" customHeight="1">
+    <row r="450" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -5782,7 +4954,7 @@
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" ht="20" customHeight="1">
+    <row r="451" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -5790,7 +4962,7 @@
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" ht="20" customHeight="1">
+    <row r="452" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -5798,7 +4970,7 @@
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" ht="20" customHeight="1">
+    <row r="453" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -5806,7 +4978,7 @@
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" ht="20" customHeight="1">
+    <row r="454" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -5814,7 +4986,7 @@
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" ht="20" customHeight="1">
+    <row r="455" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -5822,7 +4994,7 @@
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" ht="20" customHeight="1">
+    <row r="456" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -5830,7 +5002,7 @@
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457" ht="20" customHeight="1">
+    <row r="457" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -5838,7 +5010,7 @@
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" ht="20" customHeight="1">
+    <row r="458" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -5846,7 +5018,7 @@
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459" ht="20" customHeight="1">
+    <row r="459" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -5854,7 +5026,7 @@
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" ht="20" customHeight="1">
+    <row r="460" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -5862,7 +5034,7 @@
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461" ht="20" customHeight="1">
+    <row r="461" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -5870,7 +5042,7 @@
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" ht="20" customHeight="1">
+    <row r="462" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -5878,7 +5050,7 @@
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463" ht="20" customHeight="1">
+    <row r="463" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -5886,7 +5058,7 @@
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" ht="20" customHeight="1">
+    <row r="464" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -5894,7 +5066,7 @@
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" ht="20" customHeight="1">
+    <row r="465" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -5902,7 +5074,7 @@
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" ht="20" customHeight="1">
+    <row r="466" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -5910,7 +5082,7 @@
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467" ht="20" customHeight="1">
+    <row r="467" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -5918,7 +5090,7 @@
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" ht="20" customHeight="1">
+    <row r="468" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -5926,7 +5098,7 @@
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469" ht="20" customHeight="1">
+    <row r="469" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -5934,7 +5106,7 @@
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470" ht="20" customHeight="1">
+    <row r="470" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -5942,7 +5114,7 @@
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
-    <row r="471" ht="20" customHeight="1">
+    <row r="471" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -5950,7 +5122,7 @@
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472" ht="20" customHeight="1">
+    <row r="472" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -5958,7 +5130,7 @@
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" ht="20" customHeight="1">
+    <row r="473" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -5966,7 +5138,7 @@
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" ht="20" customHeight="1">
+    <row r="474" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -5974,7 +5146,7 @@
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475" ht="20" customHeight="1">
+    <row r="475" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -5982,7 +5154,7 @@
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" ht="20" customHeight="1">
+    <row r="476" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -5990,7 +5162,7 @@
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
-    <row r="477" ht="20" customHeight="1">
+    <row r="477" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -5998,7 +5170,7 @@
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478" ht="20" customHeight="1">
+    <row r="478" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -6006,7 +5178,7 @@
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
     </row>
-    <row r="479" ht="20" customHeight="1">
+    <row r="479" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -6014,7 +5186,7 @@
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480" ht="20" customHeight="1">
+    <row r="480" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -6022,7 +5194,7 @@
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
     </row>
-    <row r="481" ht="20" customHeight="1">
+    <row r="481" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -6030,7 +5202,7 @@
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482" ht="20" customHeight="1">
+    <row r="482" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -6038,7 +5210,7 @@
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
     </row>
-    <row r="483" ht="20" customHeight="1">
+    <row r="483" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -6046,7 +5218,7 @@
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484" ht="20" customHeight="1">
+    <row r="484" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -6054,7 +5226,7 @@
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485" ht="20" customHeight="1">
+    <row r="485" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -6062,7 +5234,7 @@
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" ht="20" customHeight="1">
+    <row r="486" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -6070,7 +5242,7 @@
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
     </row>
-    <row r="487" ht="20" customHeight="1">
+    <row r="487" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -6078,7 +5250,7 @@
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488" ht="20" customHeight="1">
+    <row r="488" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -6086,7 +5258,7 @@
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
     </row>
-    <row r="489" ht="20" customHeight="1">
+    <row r="489" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -6094,7 +5266,7 @@
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490" ht="20" customHeight="1">
+    <row r="490" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -6102,7 +5274,7 @@
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
     </row>
-    <row r="491" ht="20" customHeight="1">
+    <row r="491" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -6110,7 +5282,7 @@
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492" ht="20" customHeight="1">
+    <row r="492" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -6118,7 +5290,7 @@
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
     </row>
-    <row r="493" ht="20" customHeight="1">
+    <row r="493" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -6126,7 +5298,7 @@
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494" ht="20" customHeight="1">
+    <row r="494" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -6134,7 +5306,7 @@
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495" ht="20" customHeight="1">
+    <row r="495" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -6142,7 +5314,7 @@
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" ht="20" customHeight="1">
+    <row r="496" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -6150,7 +5322,7 @@
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
     </row>
-    <row r="497" ht="20" customHeight="1">
+    <row r="497" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -6158,7 +5330,7 @@
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" ht="20" customHeight="1">
+    <row r="498" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -6166,7 +5338,7 @@
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
-    <row r="499" ht="20" customHeight="1">
+    <row r="499" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -6174,7 +5346,7 @@
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500" ht="20" customHeight="1">
+    <row r="500" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -6182,7 +5354,7 @@
       <c r="E500" s="5"/>
       <c r="F500" s="5"/>
     </row>
-    <row r="501" ht="20" customHeight="1">
+    <row r="501" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -6190,7 +5362,7 @@
       <c r="E501" s="5"/>
       <c r="F501" s="5"/>
     </row>
-    <row r="502" ht="20" customHeight="1">
+    <row r="502" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -6198,7 +5370,7 @@
       <c r="E502" s="5"/>
       <c r="F502" s="5"/>
     </row>
-    <row r="503" ht="20" customHeight="1">
+    <row r="503" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -6206,7 +5378,7 @@
       <c r="E503" s="5"/>
       <c r="F503" s="5"/>
     </row>
-    <row r="504" ht="20" customHeight="1">
+    <row r="504" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -6214,7 +5386,7 @@
       <c r="E504" s="5"/>
       <c r="F504" s="5"/>
     </row>
-    <row r="505" ht="20" customHeight="1">
+    <row r="505" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -6222,7 +5394,7 @@
       <c r="E505" s="5"/>
       <c r="F505" s="5"/>
     </row>
-    <row r="506" ht="20" customHeight="1">
+    <row r="506" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -6230,7 +5402,7 @@
       <c r="E506" s="5"/>
       <c r="F506" s="5"/>
     </row>
-    <row r="507" ht="20" customHeight="1">
+    <row r="507" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -6238,7 +5410,7 @@
       <c r="E507" s="5"/>
       <c r="F507" s="5"/>
     </row>
-    <row r="508" ht="20" customHeight="1">
+    <row r="508" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -6246,7 +5418,7 @@
       <c r="E508" s="5"/>
       <c r="F508" s="5"/>
     </row>
-    <row r="509" ht="20" customHeight="1">
+    <row r="509" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -6254,7 +5426,7 @@
       <c r="E509" s="5"/>
       <c r="F509" s="5"/>
     </row>
-    <row r="510" ht="20" customHeight="1">
+    <row r="510" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -6262,7 +5434,7 @@
       <c r="E510" s="5"/>
       <c r="F510" s="5"/>
     </row>
-    <row r="511" ht="20" customHeight="1">
+    <row r="511" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -6270,7 +5442,7 @@
       <c r="E511" s="5"/>
       <c r="F511" s="5"/>
     </row>
-    <row r="512" ht="20" customHeight="1">
+    <row r="512" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -6278,7 +5450,7 @@
       <c r="E512" s="5"/>
       <c r="F512" s="5"/>
     </row>
-    <row r="513" ht="20" customHeight="1">
+    <row r="513" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -6286,7 +5458,7 @@
       <c r="E513" s="5"/>
       <c r="F513" s="5"/>
     </row>
-    <row r="514" ht="20" customHeight="1">
+    <row r="514" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -6294,7 +5466,7 @@
       <c r="E514" s="5"/>
       <c r="F514" s="5"/>
     </row>
-    <row r="515" ht="20" customHeight="1">
+    <row r="515" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -6302,7 +5474,7 @@
       <c r="E515" s="5"/>
       <c r="F515" s="5"/>
     </row>
-    <row r="516" ht="20" customHeight="1">
+    <row r="516" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -6310,7 +5482,7 @@
       <c r="E516" s="5"/>
       <c r="F516" s="5"/>
     </row>
-    <row r="517" ht="20" customHeight="1">
+    <row r="517" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -6318,7 +5490,7 @@
       <c r="E517" s="5"/>
       <c r="F517" s="5"/>
     </row>
-    <row r="518" ht="20" customHeight="1">
+    <row r="518" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -6326,7 +5498,7 @@
       <c r="E518" s="5"/>
       <c r="F518" s="5"/>
     </row>
-    <row r="519" ht="20" customHeight="1">
+    <row r="519" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -6334,7 +5506,7 @@
       <c r="E519" s="5"/>
       <c r="F519" s="5"/>
     </row>
-    <row r="520" ht="20" customHeight="1">
+    <row r="520" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -6342,7 +5514,7 @@
       <c r="E520" s="5"/>
       <c r="F520" s="5"/>
     </row>
-    <row r="521" ht="20" customHeight="1">
+    <row r="521" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -6350,7 +5522,7 @@
       <c r="E521" s="5"/>
       <c r="F521" s="5"/>
     </row>
-    <row r="522" ht="20" customHeight="1">
+    <row r="522" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -6358,7 +5530,7 @@
       <c r="E522" s="5"/>
       <c r="F522" s="5"/>
     </row>
-    <row r="523" ht="20" customHeight="1">
+    <row r="523" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -6366,7 +5538,7 @@
       <c r="E523" s="5"/>
       <c r="F523" s="5"/>
     </row>
-    <row r="524" ht="20" customHeight="1">
+    <row r="524" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -6374,7 +5546,7 @@
       <c r="E524" s="5"/>
       <c r="F524" s="5"/>
     </row>
-    <row r="525" ht="20" customHeight="1">
+    <row r="525" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -6382,7 +5554,7 @@
       <c r="E525" s="5"/>
       <c r="F525" s="5"/>
     </row>
-    <row r="526" ht="20" customHeight="1">
+    <row r="526" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -6390,7 +5562,7 @@
       <c r="E526" s="5"/>
       <c r="F526" s="5"/>
     </row>
-    <row r="527" ht="20" customHeight="1">
+    <row r="527" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -6398,7 +5570,7 @@
       <c r="E527" s="5"/>
       <c r="F527" s="5"/>
     </row>
-    <row r="528" ht="20" customHeight="1">
+    <row r="528" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -6406,7 +5578,7 @@
       <c r="E528" s="5"/>
       <c r="F528" s="5"/>
     </row>
-    <row r="529" ht="20" customHeight="1">
+    <row r="529" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -6414,7 +5586,7 @@
       <c r="E529" s="5"/>
       <c r="F529" s="5"/>
     </row>
-    <row r="530" ht="20" customHeight="1">
+    <row r="530" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -6422,7 +5594,7 @@
       <c r="E530" s="5"/>
       <c r="F530" s="5"/>
     </row>
-    <row r="531" ht="20" customHeight="1">
+    <row r="531" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -6430,7 +5602,7 @@
       <c r="E531" s="5"/>
       <c r="F531" s="5"/>
     </row>
-    <row r="532" ht="20" customHeight="1">
+    <row r="532" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -6438,7 +5610,7 @@
       <c r="E532" s="5"/>
       <c r="F532" s="5"/>
     </row>
-    <row r="533" ht="20" customHeight="1">
+    <row r="533" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -6446,7 +5618,7 @@
       <c r="E533" s="5"/>
       <c r="F533" s="5"/>
     </row>
-    <row r="534" ht="20" customHeight="1">
+    <row r="534" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -6454,7 +5626,7 @@
       <c r="E534" s="5"/>
       <c r="F534" s="5"/>
     </row>
-    <row r="535" ht="20" customHeight="1">
+    <row r="535" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -6462,7 +5634,7 @@
       <c r="E535" s="5"/>
       <c r="F535" s="5"/>
     </row>
-    <row r="536" ht="20" customHeight="1">
+    <row r="536" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -6470,7 +5642,7 @@
       <c r="E536" s="5"/>
       <c r="F536" s="5"/>
     </row>
-    <row r="537" ht="20" customHeight="1">
+    <row r="537" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -6478,7 +5650,7 @@
       <c r="E537" s="5"/>
       <c r="F537" s="5"/>
     </row>
-    <row r="538" ht="20" customHeight="1">
+    <row r="538" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -6486,7 +5658,7 @@
       <c r="E538" s="5"/>
       <c r="F538" s="5"/>
     </row>
-    <row r="539" ht="20" customHeight="1">
+    <row r="539" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -6494,7 +5666,7 @@
       <c r="E539" s="5"/>
       <c r="F539" s="5"/>
     </row>
-    <row r="540" ht="20" customHeight="1">
+    <row r="540" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -6502,7 +5674,7 @@
       <c r="E540" s="5"/>
       <c r="F540" s="5"/>
     </row>
-    <row r="541" ht="20" customHeight="1">
+    <row r="541" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -6510,7 +5682,7 @@
       <c r="E541" s="5"/>
       <c r="F541" s="5"/>
     </row>
-    <row r="542" ht="20" customHeight="1">
+    <row r="542" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -6518,7 +5690,7 @@
       <c r="E542" s="5"/>
       <c r="F542" s="5"/>
     </row>
-    <row r="543" ht="20" customHeight="1">
+    <row r="543" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -6526,7 +5698,7 @@
       <c r="E543" s="5"/>
       <c r="F543" s="5"/>
     </row>
-    <row r="544" ht="20" customHeight="1">
+    <row r="544" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -6534,7 +5706,7 @@
       <c r="E544" s="5"/>
       <c r="F544" s="5"/>
     </row>
-    <row r="545" ht="20" customHeight="1">
+    <row r="545" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -6542,7 +5714,7 @@
       <c r="E545" s="5"/>
       <c r="F545" s="5"/>
     </row>
-    <row r="546" ht="20" customHeight="1">
+    <row r="546" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -6550,7 +5722,7 @@
       <c r="E546" s="5"/>
       <c r="F546" s="5"/>
     </row>
-    <row r="547" ht="20" customHeight="1">
+    <row r="547" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -6558,7 +5730,7 @@
       <c r="E547" s="5"/>
       <c r="F547" s="5"/>
     </row>
-    <row r="548" ht="20" customHeight="1">
+    <row r="548" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -6566,7 +5738,7 @@
       <c r="E548" s="5"/>
       <c r="F548" s="5"/>
     </row>
-    <row r="549" ht="20" customHeight="1">
+    <row r="549" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -6574,7 +5746,7 @@
       <c r="E549" s="5"/>
       <c r="F549" s="5"/>
     </row>
-    <row r="550" ht="20" customHeight="1">
+    <row r="550" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -6582,7 +5754,7 @@
       <c r="E550" s="5"/>
       <c r="F550" s="5"/>
     </row>
-    <row r="551" ht="20" customHeight="1">
+    <row r="551" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -6590,7 +5762,7 @@
       <c r="E551" s="5"/>
       <c r="F551" s="5"/>
     </row>
-    <row r="552" ht="20" customHeight="1">
+    <row r="552" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -6598,7 +5770,7 @@
       <c r="E552" s="5"/>
       <c r="F552" s="5"/>
     </row>
-    <row r="553" ht="20" customHeight="1">
+    <row r="553" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -6606,7 +5778,7 @@
       <c r="E553" s="5"/>
       <c r="F553" s="5"/>
     </row>
-    <row r="554" ht="20" customHeight="1">
+    <row r="554" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -6614,7 +5786,7 @@
       <c r="E554" s="5"/>
       <c r="F554" s="5"/>
     </row>
-    <row r="555" ht="20" customHeight="1">
+    <row r="555" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -6622,7 +5794,7 @@
       <c r="E555" s="5"/>
       <c r="F555" s="5"/>
     </row>
-    <row r="556" ht="20" customHeight="1">
+    <row r="556" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -6630,7 +5802,7 @@
       <c r="E556" s="5"/>
       <c r="F556" s="5"/>
     </row>
-    <row r="557" ht="20" customHeight="1">
+    <row r="557" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -6638,7 +5810,7 @@
       <c r="E557" s="5"/>
       <c r="F557" s="5"/>
     </row>
-    <row r="558" ht="20" customHeight="1">
+    <row r="558" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -6646,7 +5818,7 @@
       <c r="E558" s="5"/>
       <c r="F558" s="5"/>
     </row>
-    <row r="559" ht="20" customHeight="1">
+    <row r="559" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -6654,7 +5826,7 @@
       <c r="E559" s="5"/>
       <c r="F559" s="5"/>
     </row>
-    <row r="560" ht="20" customHeight="1">
+    <row r="560" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -6662,7 +5834,7 @@
       <c r="E560" s="5"/>
       <c r="F560" s="5"/>
     </row>
-    <row r="561" ht="20" customHeight="1">
+    <row r="561" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -6670,7 +5842,7 @@
       <c r="E561" s="5"/>
       <c r="F561" s="5"/>
     </row>
-    <row r="562" ht="20" customHeight="1">
+    <row r="562" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -6678,7 +5850,7 @@
       <c r="E562" s="5"/>
       <c r="F562" s="5"/>
     </row>
-    <row r="563" ht="20" customHeight="1">
+    <row r="563" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -6686,7 +5858,7 @@
       <c r="E563" s="5"/>
       <c r="F563" s="5"/>
     </row>
-    <row r="564" ht="20" customHeight="1">
+    <row r="564" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -6694,7 +5866,7 @@
       <c r="E564" s="5"/>
       <c r="F564" s="5"/>
     </row>
-    <row r="565" ht="20" customHeight="1">
+    <row r="565" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -6702,7 +5874,7 @@
       <c r="E565" s="5"/>
       <c r="F565" s="5"/>
     </row>
-    <row r="566" ht="20" customHeight="1">
+    <row r="566" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -6710,7 +5882,7 @@
       <c r="E566" s="5"/>
       <c r="F566" s="5"/>
     </row>
-    <row r="567" ht="20" customHeight="1">
+    <row r="567" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -6718,7 +5890,7 @@
       <c r="E567" s="5"/>
       <c r="F567" s="5"/>
     </row>
-    <row r="568" ht="20" customHeight="1">
+    <row r="568" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -6726,7 +5898,7 @@
       <c r="E568" s="5"/>
       <c r="F568" s="5"/>
     </row>
-    <row r="569" ht="20" customHeight="1">
+    <row r="569" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -6734,7 +5906,7 @@
       <c r="E569" s="5"/>
       <c r="F569" s="5"/>
     </row>
-    <row r="570" ht="20" customHeight="1">
+    <row r="570" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -6742,7 +5914,7 @@
       <c r="E570" s="5"/>
       <c r="F570" s="5"/>
     </row>
-    <row r="571" ht="20" customHeight="1">
+    <row r="571" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -6750,7 +5922,7 @@
       <c r="E571" s="5"/>
       <c r="F571" s="5"/>
     </row>
-    <row r="572" ht="20" customHeight="1">
+    <row r="572" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -6758,7 +5930,7 @@
       <c r="E572" s="5"/>
       <c r="F572" s="5"/>
     </row>
-    <row r="573" ht="20" customHeight="1">
+    <row r="573" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -6766,7 +5938,7 @@
       <c r="E573" s="5"/>
       <c r="F573" s="5"/>
     </row>
-    <row r="574" ht="20" customHeight="1">
+    <row r="574" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -6774,7 +5946,7 @@
       <c r="E574" s="5"/>
       <c r="F574" s="5"/>
     </row>
-    <row r="575" ht="20" customHeight="1">
+    <row r="575" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -6782,7 +5954,7 @@
       <c r="E575" s="5"/>
       <c r="F575" s="5"/>
     </row>
-    <row r="576" ht="20" customHeight="1">
+    <row r="576" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -6790,7 +5962,7 @@
       <c r="E576" s="5"/>
       <c r="F576" s="5"/>
     </row>
-    <row r="577" ht="20" customHeight="1">
+    <row r="577" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -6798,7 +5970,7 @@
       <c r="E577" s="5"/>
       <c r="F577" s="5"/>
     </row>
-    <row r="578" ht="20" customHeight="1">
+    <row r="578" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -6806,7 +5978,7 @@
       <c r="E578" s="5"/>
       <c r="F578" s="5"/>
     </row>
-    <row r="579" ht="20" customHeight="1">
+    <row r="579" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -6814,7 +5986,7 @@
       <c r="E579" s="5"/>
       <c r="F579" s="5"/>
     </row>
-    <row r="580" ht="20" customHeight="1">
+    <row r="580" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -6822,7 +5994,7 @@
       <c r="E580" s="5"/>
       <c r="F580" s="5"/>
     </row>
-    <row r="581" ht="20" customHeight="1">
+    <row r="581" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -6830,7 +6002,7 @@
       <c r="E581" s="5"/>
       <c r="F581" s="5"/>
     </row>
-    <row r="582" ht="20" customHeight="1">
+    <row r="582" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -6838,7 +6010,7 @@
       <c r="E582" s="5"/>
       <c r="F582" s="5"/>
     </row>
-    <row r="583" ht="20" customHeight="1">
+    <row r="583" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -6846,7 +6018,7 @@
       <c r="E583" s="5"/>
       <c r="F583" s="5"/>
     </row>
-    <row r="584" ht="20" customHeight="1">
+    <row r="584" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -6854,7 +6026,7 @@
       <c r="E584" s="5"/>
       <c r="F584" s="5"/>
     </row>
-    <row r="585" ht="20" customHeight="1">
+    <row r="585" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -6862,7 +6034,7 @@
       <c r="E585" s="5"/>
       <c r="F585" s="5"/>
     </row>
-    <row r="586" ht="20" customHeight="1">
+    <row r="586" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -6870,7 +6042,7 @@
       <c r="E586" s="5"/>
       <c r="F586" s="5"/>
     </row>
-    <row r="587" ht="20" customHeight="1">
+    <row r="587" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -6879,9 +6051,10 @@
       <c r="F587" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Table 1_1</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/etc/2235-swen-261-8H Team Trees copy.xlsx
+++ b/etc/2235-swen-261-8H Team Trees copy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -181,6 +181,9 @@
     <t xml:space="preserve">RN 3/23/24 Pass</t>
   </si>
   <si>
+    <t xml:space="preserve">RN 4/7/24 - Pass</t>
+  </si>
+  <si>
     <t xml:space="preserve">As a helper I want to navigate my site so I can help contribute to the needs</t>
   </si>
   <si>
@@ -253,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">NF 3/23/24 Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NF 4/7/24 – Pass</t>
   </si>
   <si>
     <t xml:space="preserve">As a helper I want to get feedback if there are needs so that I know when I can contribute to them</t>
@@ -346,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">RN 3/25/24 – Failed. Comment: have not created yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RN 4/7/24 – Pass</t>
   </si>
   <si>
     <t xml:space="preserve">As a user I want to have a description of each need so when I click on a need it gives it’s details</t>
@@ -568,6 +577,9 @@
     <t xml:space="preserve">ZH, DR 3/24/24 Pass</t>
   </si>
   <si>
+    <t xml:space="preserve">ZH, DR 4/7/24 – Pass</t>
+  </si>
+  <si>
     <t xml:space="preserve">As an admin I want to be able to login as a user, so that I can have access to admin functionality  </t>
   </si>
   <si>
@@ -577,7 +589,7 @@
     <t xml:space="preserve">As a user, I want to be able to sort by age, so that I can support a need based on a given size.</t>
   </si>
   <si>
-    <t xml:space="preserve">**Given** I want to filter by size **when** I click the filter by size button, **then** I expect to see the needs filtered by size, either ascending or descending.</t>
+    <t xml:space="preserve">**Given** I want to filter by age **when** I click the filter by age button, **then** I expect to see the needs filtered by age, either ascending or descending.</t>
   </si>
   <si>
     <t xml:space="preserve">RN 4/2/24 Failed. Comment – Not implemented yet</t>
@@ -587,6 +599,9 @@
   </si>
   <si>
     <t xml:space="preserve">**Given** I enter a string/partial string in which no need has **when** I search for a need **then** I expect to receive an empty list of needs with a code of 200. **Given** I enter a string **when** I search for a need **then** I expect the list of visible needs to filter based on the given string and return a 200.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR 4/7/24 – Pass</t>
   </si>
   <si>
     <t xml:space="preserve">As a user, I want to be able to filter by cost, so that I can see which needs are cheaper and which are more expensive.</t>
@@ -599,6 +614,9 @@
   </si>
   <si>
     <t xml:space="preserve">**Given** I am on the need view page **when**  I click a given need **then** I expect a description of a need to appear on the screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZH 4/7/24 - Pass</t>
   </si>
 </sst>
 </file>
@@ -678,7 +696,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="0"/>
     </font>
@@ -836,7 +854,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -909,7 +927,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -946,10 +964,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1151,7 +1165,7 @@
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="115.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="115.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="3" style="1" width="11.5"/>
   </cols>
   <sheetData>
@@ -1256,17 +1270,17 @@
   <dimension ref="A1:F587"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="64.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="64.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="64.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.5"/>
   </cols>
   <sheetData>
@@ -1302,161 +1316,185 @@
         <v>13</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="18"/>
+      <c r="F5" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="27" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="18" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="28" t="s">
-        <v>35</v>
+      <c r="D11" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="18" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="28" t="s">
-        <v>35</v>
+      <c r="E12" s="14"/>
+      <c r="F12" s="18" t="s">
+        <v>14</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="28" t="s">
-        <v>35</v>
+      <c r="D13" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
